--- a/sampleInfo/RNA seq calculation v2.0.xlsx
+++ b/sampleInfo/RNA seq calculation v2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Printz" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="249">
   <si>
     <t>Sample Name</t>
   </si>
@@ -399,276 +399,409 @@
   </si>
   <si>
     <t>Adapter Index
-Total RNA</t>
-  </si>
-  <si>
-    <t>Adapter Index
 Small RNA</t>
+  </si>
+  <si>
+    <t>HXB1_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB3_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB4_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB5_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB10_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB15_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB18_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB20_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB21_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB22_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB23_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB24_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB29_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB31_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH2_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>HXB3_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB4_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB5_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB10_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB15_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB18_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB20_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB21_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB22_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB1_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB23_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB24_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB29_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>HXB31_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH2_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>Nonmember</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Elective</t>
+  </si>
+  <si>
+    <t>total cost</t>
+  </si>
+  <si>
+    <t>BXH3_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH3_2 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH5_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH6_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH6_2 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH8_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH9_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH9_2 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH10_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH10_2 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH11_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH11_2 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH13_1 brain total RNA</t>
+  </si>
+  <si>
+    <t>BXH3_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH3_2 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH5_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH6_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH6_2 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH8_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH9_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH9_2 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH10_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH10_2 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH11_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH11_2 brain small RNA</t>
+  </si>
+  <si>
+    <t>BXH13_1 brain small RNA</t>
+  </si>
+  <si>
+    <t>Also serves as loading control</t>
+  </si>
+  <si>
+    <t>[]o</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>ng of RNA used for cDNA library</t>
+  </si>
+  <si>
+    <t>HXB27_1 liver total RNA</t>
+  </si>
+  <si>
+    <t>Liver</t>
+  </si>
+  <si>
+    <t>SHR_1 liver total RNA</t>
+  </si>
+  <si>
+    <t>HXB7_1 liver total RNA</t>
+  </si>
+  <si>
+    <t>SHR_2 liver total RNA</t>
+  </si>
+  <si>
+    <t>HXB25_2 liver total RNA</t>
+  </si>
+  <si>
+    <t>HXB25_1 liver total RNA</t>
+  </si>
+  <si>
+    <t>HXB7_2 liver total RNA</t>
+  </si>
+  <si>
+    <t>HXB27_2 liver total RNA</t>
+  </si>
+  <si>
+    <t>HXB17_1 liver total RNA</t>
+  </si>
+  <si>
+    <t>HXB2_2 liver total RNA</t>
+  </si>
+  <si>
+    <t>HXB13_2 liver total RNA</t>
+  </si>
+  <si>
+    <t>BXH12_1 liver total RNA</t>
+  </si>
+  <si>
+    <t>HXB2_1 liver total RNA</t>
+  </si>
+  <si>
+    <t>BXH12_2 liver total RNA</t>
+  </si>
+  <si>
+    <t>HXB13_1 liver total RNA</t>
+  </si>
+  <si>
+    <t>HXB17_2 liver total RNA</t>
+  </si>
+  <si>
+    <t>HXB27_1 liver small RNA</t>
+  </si>
+  <si>
+    <t>SHR_1 liver small RNA</t>
+  </si>
+  <si>
+    <t>HXB7_1 liver small RNA</t>
+  </si>
+  <si>
+    <t>SHR_2 liver small RNA</t>
+  </si>
+  <si>
+    <t>HXB25_2 liver small RNA</t>
+  </si>
+  <si>
+    <t>HXB25_1 liver small RNA</t>
+  </si>
+  <si>
+    <t>HXB7_2 liver small RNA</t>
+  </si>
+  <si>
+    <t>HXB27_2 liver small RNA</t>
+  </si>
+  <si>
+    <t>HXB17_1 liver small RNA</t>
+  </si>
+  <si>
+    <t>HXB2_2 liver small RNA</t>
+  </si>
+  <si>
+    <t>HXB13_2 liver small RNA</t>
+  </si>
+  <si>
+    <t>BXH12_1 liver small RNA</t>
+  </si>
+  <si>
+    <t>HXB2_1 liver small RNA</t>
+  </si>
+  <si>
+    <t>BXH12_2 liver small RNA</t>
+  </si>
+  <si>
+    <t>HXB13_1 liver small RNA</t>
+  </si>
+  <si>
+    <t>HXB17_2 liver small RNA</t>
+  </si>
+  <si>
+    <t>vol. for 100ug</t>
+  </si>
+  <si>
+    <t>total RNA
+concentration (ng/uL)</t>
+  </si>
+  <si>
+    <t>H2O vol</t>
   </si>
   <si>
     <t>vol. for 100ng
  small RNA 
-(5x pre-diluted)</t>
-  </si>
-  <si>
-    <t>HXB1_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB3_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB4_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB5_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB10_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB15_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB18_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB20_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB21_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB22_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB23_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB24_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB29_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB31_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH2_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>HXB3_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB4_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB5_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB10_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB15_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB18_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB20_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB21_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB22_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB1_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB23_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB24_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB29_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>HXB31_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH2_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>Nonmember</t>
-  </si>
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>Core</t>
-  </si>
-  <si>
-    <t>Elective</t>
-  </si>
-  <si>
-    <t>total cost</t>
-  </si>
-  <si>
-    <t>Spike mix
-1/2</t>
-  </si>
-  <si>
-    <t>Adapter 
-Index</t>
-  </si>
-  <si>
-    <t>BXH3_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH3_2 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH5_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH6_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH6_2 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH8_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH9_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH9_2 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH10_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH10_2 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH11_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH11_2 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH13_1 brain total RNA</t>
-  </si>
-  <si>
-    <t>BXH3_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH3_2 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH5_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH6_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH6_2 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH8_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH9_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH9_2 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH10_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH10_2 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH11_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH11_2 brain small RNA</t>
-  </si>
-  <si>
-    <t>BXH13_1 brain small RNA</t>
-  </si>
-  <si>
-    <t>BN_LX_1 brain total RNA*</t>
-  </si>
-  <si>
-    <t>BN_LX_2 brain total RNA*</t>
-  </si>
-  <si>
-    <t>SHR_1 brain total RNA**</t>
-  </si>
-  <si>
-    <t>Also serves as loading control</t>
-  </si>
-  <si>
-    <t>[]o</t>
+(51x pre-diluted)</t>
   </si>
   <si>
     <t>Vol. of sample
-for 1ug total RNA
-(10x pre-diluted)</t>
-  </si>
-  <si>
-    <t>* extracted on 1/29/2014-1/30/2014</t>
-  </si>
-  <si>
-    <t>**extracted on 4/25/2014, serves as loading control</t>
-  </si>
-  <si>
-    <t>liver</t>
-  </si>
-  <si>
-    <t>ng of RNA used for cDNA library</t>
+for 1ug total RNA</t>
+  </si>
+  <si>
+    <t>Adapter Index
+(Adapter plate)</t>
+  </si>
+  <si>
+    <t>D501-D701</t>
+  </si>
+  <si>
+    <t>D501-D702</t>
+  </si>
+  <si>
+    <t>D501-D703</t>
+  </si>
+  <si>
+    <t>D501-D704</t>
+  </si>
+  <si>
+    <t>D502-D702</t>
+  </si>
+  <si>
+    <t>D502-D701</t>
+  </si>
+  <si>
+    <t>D502-D703</t>
+  </si>
+  <si>
+    <t>D502-D704</t>
+  </si>
+  <si>
+    <t>D501-D705</t>
+  </si>
+  <si>
+    <t>D501-D706</t>
+  </si>
+  <si>
+    <t>D501-D707</t>
+  </si>
+  <si>
+    <t>D501-D708</t>
+  </si>
+  <si>
+    <t>D501-D709</t>
+  </si>
+  <si>
+    <t>D501-D710</t>
+  </si>
+  <si>
+    <t>D501-D711</t>
+  </si>
+  <si>
+    <t>D501-D712</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1027,9 +1160,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,46 +1246,6 @@
   <dxfs count="38">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1954,6 +2044,46 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2084,53 +2214,53 @@
   <tableColumns count="19">
     <tableColumn id="1" name="Sample name" dataDxfId="34"/>
     <tableColumn id="2" name="Source of _x000a_sample" dataDxfId="33"/>
-    <tableColumn id="19" name="Tissue type" dataDxfId="0"/>
-    <tableColumn id="3" name="Total RNA concentration_x000a_(ng/uL)" dataDxfId="32"/>
-    <tableColumn id="4" name="ug of total RNA_x000a_ eluted" dataDxfId="31">
+    <tableColumn id="19" name="Tissue type" dataDxfId="32"/>
+    <tableColumn id="3" name="Total RNA concentration_x000a_(ng/uL)" dataDxfId="31"/>
+    <tableColumn id="4" name="ug of total RNA_x000a_ eluted" dataDxfId="30">
       <calculatedColumnFormula>130*D3/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Sample Vol. for_x000a_100 ug total RNA" dataDxfId="30">
+    <tableColumn id="5" name="Sample Vol. for_x000a_100 ug total RNA" dataDxfId="29">
       <calculatedColumnFormula>100*1000/D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Vol. of H2O" dataDxfId="29">
+    <tableColumn id="6" name="Vol. of H2O" dataDxfId="28">
       <calculatedColumnFormula>100-F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Cleaned Total RNA_x000a_concentration_x000a_(ng/uL)" dataDxfId="28"/>
-    <tableColumn id="8" name="Small RNA _x000a_concentration_x000a_(ng/uL)" dataDxfId="27"/>
-    <tableColumn id="9" name="vol for 1ug_x000a_cleaned total RNA" dataDxfId="26"/>
-    <tableColumn id="10" name="Vol. of H2O2" dataDxfId="25"/>
-    <tableColumn id="11" name="vol. of ERCC_x000a_spike control (1:100)" dataDxfId="24"/>
-    <tableColumn id="12" name="Mix 1/Mix 2" dataDxfId="23"/>
-    <tableColumn id="13" name="Total RNA library_x000a_ Adaptor Index" dataDxfId="22"/>
-    <tableColumn id="14" name="cDNA concentration measurement_x000a_(ng/uL)" dataDxfId="21"/>
-    <tableColumn id="15" name="vol for 1ug small RNA" dataDxfId="20"/>
-    <tableColumn id="16" name="Vol. of H2O3" dataDxfId="19"/>
-    <tableColumn id="17" name="Small RNA library _x000a_Adapter Index" dataDxfId="18"/>
-    <tableColumn id="18" name="Small RNA cDNA concentration measurement_x000a_(ng/uL)4" dataDxfId="17"/>
+    <tableColumn id="7" name="Cleaned Total RNA_x000a_concentration_x000a_(ng/uL)" dataDxfId="27"/>
+    <tableColumn id="8" name="Small RNA _x000a_concentration_x000a_(ng/uL)" dataDxfId="26"/>
+    <tableColumn id="9" name="vol for 1ug_x000a_cleaned total RNA" dataDxfId="25"/>
+    <tableColumn id="10" name="Vol. of H2O2" dataDxfId="24"/>
+    <tableColumn id="11" name="vol. of ERCC_x000a_spike control (1:100)" dataDxfId="23"/>
+    <tableColumn id="12" name="Mix 1/Mix 2" dataDxfId="22"/>
+    <tableColumn id="13" name="Total RNA library_x000a_ Adaptor Index" dataDxfId="21"/>
+    <tableColumn id="14" name="cDNA concentration measurement_x000a_(ng/uL)" dataDxfId="20"/>
+    <tableColumn id="15" name="vol for 1ug small RNA" dataDxfId="19"/>
+    <tableColumn id="16" name="Vol. of H2O3" dataDxfId="18"/>
+    <tableColumn id="17" name="Small RNA library _x000a_Adapter Index" dataDxfId="17"/>
+    <tableColumn id="18" name="Small RNA cDNA concentration measurement_x000a_(ng/uL)4" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M69" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M69" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:M69"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Sample Name" dataDxfId="13"/>
-    <tableColumn id="2" name="Source of _x000a_sample" dataDxfId="12"/>
-    <tableColumn id="20" name="Sex" dataDxfId="11"/>
-    <tableColumn id="3" name="Tissue type" dataDxfId="10"/>
-    <tableColumn id="19" name="Date of extraction" dataDxfId="9"/>
-    <tableColumn id="4" name="RNA _x000a_concentration_x000a_(ng/uL)" dataDxfId="8"/>
-    <tableColumn id="5" name="ng of RNA used for cDNA library" dataDxfId="7">
+    <tableColumn id="1" name="Sample Name" dataDxfId="12"/>
+    <tableColumn id="2" name="Source of _x000a_sample" dataDxfId="11"/>
+    <tableColumn id="20" name="Sex" dataDxfId="10"/>
+    <tableColumn id="3" name="Tissue type" dataDxfId="9"/>
+    <tableColumn id="19" name="Date of extraction" dataDxfId="8"/>
+    <tableColumn id="4" name="RNA _x000a_concentration_x000a_(ng/uL)" dataDxfId="7"/>
+    <tableColumn id="5" name="ng of RNA used for cDNA library" dataDxfId="6">
       <calculatedColumnFormula>130*F2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Date of RNA _x000a_clean up" dataDxfId="6"/>
-    <tableColumn id="7" name="Cleaned total RNA Concentration_x000a_(ng/uL)" dataDxfId="5"/>
-    <tableColumn id="12" name="vol. of ERCC_x000a_spike control (1:100)" dataDxfId="4"/>
-    <tableColumn id="13" name="Mix 1/Mix 2" dataDxfId="3"/>
-    <tableColumn id="14" name="Adapater Index_x000a_for cDNA library" dataDxfId="2"/>
-    <tableColumn id="15" name="Total RNA cDNA concentration _x000a_measurement (ng/uL)" dataDxfId="1"/>
+    <tableColumn id="6" name="Date of RNA _x000a_clean up" dataDxfId="5"/>
+    <tableColumn id="7" name="Cleaned total RNA Concentration_x000a_(ng/uL)" dataDxfId="4"/>
+    <tableColumn id="12" name="vol. of ERCC_x000a_spike control (1:100)" dataDxfId="3"/>
+    <tableColumn id="13" name="Mix 1/Mix 2" dataDxfId="2"/>
+    <tableColumn id="14" name="Adapater Index_x000a_for cDNA library" dataDxfId="1"/>
+    <tableColumn id="15" name="Total RNA cDNA concentration _x000a_measurement (ng/uL)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2432,7 +2562,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="37.5546875" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
@@ -2454,14 +2584,14 @@
     <col min="18" max="18" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:19" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="65.25" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>38</v>
       </c>
@@ -2520,7 +2650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
@@ -2528,7 +2658,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D3" s="9">
         <v>1408.76</v>
@@ -2586,7 +2716,7 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
@@ -2594,7 +2724,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D4" s="9">
         <v>2723.01</v>
@@ -2652,7 +2782,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
@@ -2660,7 +2790,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D5" s="29">
         <v>1986</v>
@@ -2708,7 +2838,7 @@
       <c r="R5" s="9"/>
       <c r="S5" s="26"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
@@ -2716,7 +2846,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D6" s="9">
         <v>2946.86</v>
@@ -2774,7 +2904,7 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="22" t="s">
         <v>10</v>
       </c>
@@ -2782,7 +2912,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D7" s="9">
         <v>1789.51</v>
@@ -2840,7 +2970,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -2848,7 +2978,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D8" s="9">
         <v>3329.13</v>
@@ -2906,7 +3036,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="32" t="s">
         <v>12</v>
       </c>
@@ -2914,7 +3044,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D9" s="33">
         <v>1912.86</v>
@@ -2956,22 +3086,22 @@
       <c r="R9" s="13"/>
       <c r="S9" s="36"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="N11" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="N12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2987,20 +3117,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA154"/>
+  <dimension ref="A1:BA176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P82" sqref="P82"/>
+    <sheetView zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32.109375" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18" style="113" customWidth="1"/>
+    <col min="6" max="6" width="18" style="112" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
@@ -3010,7 +3140,7 @@
     <col min="13" max="13" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="67.2" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3026,11 +3156,11 @@
       <c r="E1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="108" t="s">
         <v>60</v>
       </c>
       <c r="G1" s="69" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>59</v>
@@ -3051,7 +3181,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" hidden="1">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3081,9 +3211,9 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
-        <v>151</v>
+    <row r="3" spans="1:53" hidden="1">
+      <c r="A3" s="85" t="s">
+        <v>149</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>15</v>
@@ -3111,7 +3241,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" hidden="1">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -3141,7 +3271,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" hidden="1">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -3171,7 +3301,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" hidden="1">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3201,7 +3331,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:53" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" hidden="1">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -3231,13 +3361,13 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53">
       <c r="A8" s="12"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="110"/>
+      <c r="F8" s="109"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -3246,7 +3376,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53">
       <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
@@ -3287,7 +3417,7 @@
         <v>2.0455000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53">
       <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
@@ -3328,7 +3458,7 @@
         <v>17.131499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -3369,7 +3499,7 @@
         <v>10.739000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53">
       <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
@@ -3410,7 +3540,7 @@
         <v>19.688500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53">
       <c r="A13" s="9" t="s">
         <v>47</v>
       </c>
@@ -3451,7 +3581,7 @@
         <v>30.939</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53">
       <c r="A14" s="9" t="s">
         <v>48</v>
       </c>
@@ -3492,7 +3622,7 @@
         <v>8.6935000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53">
       <c r="A15" s="9" t="s">
         <v>49</v>
       </c>
@@ -3573,7 +3703,7 @@
       <c r="AZ15" s="66"/>
       <c r="BA15" s="66"/>
     </row>
-    <row r="16" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" s="9" customFormat="1">
       <c r="A16" s="13" t="s">
         <v>50</v>
       </c>
@@ -3654,7 +3784,7 @@
       <c r="AZ16" s="65"/>
       <c r="BA16" s="65"/>
     </row>
-    <row r="17" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="65" customFormat="1">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -3687,7 +3817,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="65" customFormat="1">
       <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
@@ -3720,7 +3850,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="65" customFormat="1">
       <c r="A19" s="9" t="s">
         <v>53</v>
       </c>
@@ -3753,7 +3883,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="65" customFormat="1">
       <c r="A20" s="9" t="s">
         <v>54</v>
       </c>
@@ -3786,7 +3916,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="65" customFormat="1">
       <c r="A21" s="9" t="s">
         <v>55</v>
       </c>
@@ -3819,7 +3949,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="65" customFormat="1">
       <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
@@ -3852,7 +3982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="65" customFormat="1">
       <c r="A23" s="9" t="s">
         <v>57</v>
       </c>
@@ -3885,7 +4015,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="13" t="s">
         <v>58</v>
       </c>
@@ -3918,7 +4048,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="9"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -3933,7 +4063,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="44"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
@@ -3948,7 +4078,7 @@
       <c r="L26" s="54"/>
       <c r="M26" s="58"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="9" t="s">
         <v>63</v>
       </c>
@@ -3989,7 +4119,7 @@
         <v>17.260000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="9" t="s">
         <v>64</v>
       </c>
@@ -4030,7 +4160,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="9" t="s">
         <v>65</v>
       </c>
@@ -4071,7 +4201,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="9" t="s">
         <v>66</v>
       </c>
@@ -4112,7 +4242,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" s="9" t="s">
         <v>67</v>
       </c>
@@ -4153,7 +4283,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
@@ -4194,7 +4324,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15">
       <c r="A33" s="9" t="s">
         <v>69</v>
       </c>
@@ -4235,7 +4365,7 @@
         <v>79.849999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15">
       <c r="A34" s="9" t="s">
         <v>70</v>
       </c>
@@ -4276,7 +4406,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15">
       <c r="A35" s="9" t="s">
         <v>71</v>
       </c>
@@ -4317,7 +4447,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15">
       <c r="A36" s="9" t="s">
         <v>72</v>
       </c>
@@ -4358,7 +4488,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15">
       <c r="A37" s="9" t="s">
         <v>73</v>
       </c>
@@ -4399,7 +4529,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15">
       <c r="A38" s="9" t="s">
         <v>74</v>
       </c>
@@ -4440,7 +4570,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15">
       <c r="A39" s="9" t="s">
         <v>75</v>
       </c>
@@ -4481,7 +4611,7 @@
         <v>33.31</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15">
       <c r="A40" s="9" t="s">
         <v>76</v>
       </c>
@@ -4522,51 +4652,51 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15">
       <c r="A41" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="96">
+      <c r="B41" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="95">
         <v>41753</v>
       </c>
-      <c r="F41" s="100">
+      <c r="F41" s="99">
         <v>983.6</v>
       </c>
-      <c r="G41" s="98">
+      <c r="G41" s="97">
         <v>1000</v>
       </c>
-      <c r="H41" s="99">
+      <c r="H41" s="98">
         <v>41754</v>
       </c>
-      <c r="I41" s="97">
+      <c r="I41" s="96">
         <v>1715.4</v>
       </c>
-      <c r="J41" s="97">
+      <c r="J41" s="96">
         <v>4</v>
       </c>
-      <c r="K41" s="97">
+      <c r="K41" s="96">
         <v>1</v>
       </c>
-      <c r="L41" s="97">
+      <c r="L41" s="96">
         <v>6</v>
       </c>
-      <c r="M41" s="100">
+      <c r="M41" s="99">
         <v>2.92</v>
       </c>
       <c r="O41" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="9" t="s">
         <v>78</v>
       </c>
@@ -4597,51 +4727,51 @@
       <c r="L42" s="47"/>
       <c r="M42" s="51"/>
       <c r="O42" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="88" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="90">
+      <c r="D43" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="89">
         <v>41668</v>
       </c>
-      <c r="F43" s="93">
+      <c r="F43" s="92">
         <v>1751.68</v>
       </c>
-      <c r="G43" s="91">
+      <c r="G43" s="90">
         <v>1000</v>
       </c>
-      <c r="H43" s="92">
+      <c r="H43" s="91">
         <v>41669</v>
       </c>
-      <c r="I43" s="88">
+      <c r="I43" s="87">
         <v>1751.2</v>
       </c>
-      <c r="J43" s="88">
+      <c r="J43" s="87">
         <v>4</v>
       </c>
-      <c r="K43" s="88">
+      <c r="K43" s="87">
         <v>2</v>
       </c>
-      <c r="L43" s="88">
+      <c r="L43" s="87">
         <v>4</v>
       </c>
-      <c r="M43" s="93">
+      <c r="M43" s="92">
         <v>6.32</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15">
       <c r="A44" s="9" t="s">
         <v>79</v>
       </c>
@@ -4674,7 +4804,7 @@
       </c>
       <c r="M44" s="44"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15">
       <c r="A45" s="9" t="s">
         <v>80</v>
       </c>
@@ -4707,7 +4837,7 @@
       </c>
       <c r="M45" s="44"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15">
       <c r="A46" s="9" t="s">
         <v>81</v>
       </c>
@@ -4740,7 +4870,7 @@
       </c>
       <c r="M46" s="44"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15">
       <c r="A47" s="9" t="s">
         <v>82</v>
       </c>
@@ -4773,7 +4903,7 @@
       </c>
       <c r="M47" s="44"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15">
       <c r="A48" s="9" t="s">
         <v>83</v>
       </c>
@@ -4806,7 +4936,7 @@
       </c>
       <c r="M48" s="44"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="9" t="s">
         <v>84</v>
       </c>
@@ -4839,7 +4969,7 @@
       </c>
       <c r="M49" s="44"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50" s="9" t="s">
         <v>85</v>
       </c>
@@ -4872,7 +5002,7 @@
       </c>
       <c r="M50" s="44"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="A51" s="9" t="s">
         <v>86</v>
       </c>
@@ -4905,7 +5035,7 @@
       </c>
       <c r="M51" s="44"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52" s="9" t="s">
         <v>87</v>
       </c>
@@ -4938,7 +5068,7 @@
       </c>
       <c r="M52" s="51"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="9" t="s">
         <v>88</v>
       </c>
@@ -4971,7 +5101,7 @@
       </c>
       <c r="M53" s="44"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54" s="9" t="s">
         <v>89</v>
       </c>
@@ -5004,7 +5134,7 @@
       </c>
       <c r="M54" s="51"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55" s="9" t="s">
         <v>90</v>
       </c>
@@ -5037,7 +5167,7 @@
       </c>
       <c r="M55" s="44"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="A56" s="9" t="s">
         <v>91</v>
       </c>
@@ -5070,7 +5200,7 @@
       </c>
       <c r="M56" s="44"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="9" t="s">
         <v>92</v>
       </c>
@@ -5103,29 +5233,29 @@
       </c>
       <c r="M57" s="53"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="A58" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="104">
+      <c r="B58" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="103">
         <v>41754</v>
       </c>
-      <c r="F58" s="103">
+      <c r="F58" s="102">
         <v>222.41</v>
       </c>
-      <c r="G58" s="101">
+      <c r="G58" s="100">
         <v>100</v>
       </c>
-      <c r="H58" s="99">
+      <c r="H58" s="98">
         <v>41754</v>
       </c>
       <c r="I58" s="27"/>
@@ -5134,9 +5264,9 @@
       <c r="L58" s="27">
         <v>2</v>
       </c>
-      <c r="M58" s="103"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M58" s="102"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="9" t="s">
         <v>94</v>
       </c>
@@ -5167,7 +5297,7 @@
       </c>
       <c r="M59" s="44"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60" s="9" t="s">
         <v>117</v>
       </c>
@@ -5200,7 +5330,7 @@
       </c>
       <c r="M60" s="44"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61" s="59"/>
       <c r="B61" s="60"/>
       <c r="C61" s="60"/>
@@ -5215,7 +5345,7 @@
       <c r="L61" s="59"/>
       <c r="M61" s="63"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="9" t="s">
         <v>77</v>
       </c>
@@ -5256,7 +5386,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="A63" s="9" t="s">
         <v>98</v>
       </c>
@@ -5297,7 +5427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="A64" s="9" t="s">
         <v>99</v>
       </c>
@@ -5338,7 +5468,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19">
       <c r="A65" s="9" t="s">
         <v>100</v>
       </c>
@@ -5379,7 +5509,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19">
       <c r="A66" s="9" t="s">
         <v>101</v>
       </c>
@@ -5423,7 +5553,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19">
       <c r="A67" s="9" t="s">
         <v>102</v>
       </c>
@@ -5464,7 +5594,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19">
       <c r="A68" s="9" t="s">
         <v>103</v>
       </c>
@@ -5505,7 +5635,7 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19">
       <c r="A69" s="9" t="s">
         <v>104</v>
       </c>
@@ -5546,7 +5676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19">
       <c r="A70" s="9" t="s">
         <v>93</v>
       </c>
@@ -5577,7 +5707,7 @@
       </c>
       <c r="M70" s="44"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19">
       <c r="A71" s="59" t="s">
         <v>105</v>
       </c>
@@ -5608,7 +5738,7 @@
       </c>
       <c r="M71" s="63"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19">
       <c r="A72" s="9" t="s">
         <v>106</v>
       </c>
@@ -5639,7 +5769,7 @@
       </c>
       <c r="M72" s="44"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19">
       <c r="A73" s="59" t="s">
         <v>107</v>
       </c>
@@ -5670,7 +5800,7 @@
       </c>
       <c r="M73" s="63"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19">
       <c r="A74" s="9" t="s">
         <v>108</v>
       </c>
@@ -5701,7 +5831,7 @@
       </c>
       <c r="M74" s="44"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19">
       <c r="A75" s="59" t="s">
         <v>109</v>
       </c>
@@ -5732,7 +5862,7 @@
       </c>
       <c r="M75" s="63"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19">
       <c r="A76" s="9" t="s">
         <v>110</v>
       </c>
@@ -5763,7 +5893,7 @@
       </c>
       <c r="M76" s="44"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19">
       <c r="A77" s="59" t="s">
         <v>111</v>
       </c>
@@ -5794,24 +5924,24 @@
       </c>
       <c r="M77" s="63"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A78" s="75"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="79"/>
-      <c r="H78" s="78"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="75"/>
-      <c r="L78" s="75"/>
-      <c r="M78" s="79"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19">
+      <c r="A78" s="74"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="78"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="78"/>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B79" s="60" t="s">
         <v>15</v>
@@ -5850,9 +5980,9 @@
         <v>13.470499999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19">
       <c r="A80" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B80" s="39" t="s">
         <v>15</v>
@@ -5872,7 +6002,7 @@
       <c r="G80" s="63">
         <v>1000</v>
       </c>
-      <c r="H80" s="81">
+      <c r="H80" s="80">
         <v>41843</v>
       </c>
       <c r="I80" s="9">
@@ -5891,9 +6021,9 @@
         <v>22.170500000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13">
       <c r="A81" s="59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B81" s="60" t="s">
         <v>15</v>
@@ -5932,9 +6062,9 @@
         <v>24.415500000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13">
       <c r="A82" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B82" s="39" t="s">
         <v>15</v>
@@ -5954,7 +6084,7 @@
       <c r="G82" s="63">
         <v>1000</v>
       </c>
-      <c r="H82" s="81">
+      <c r="H82" s="80">
         <v>41843</v>
       </c>
       <c r="I82" s="9">
@@ -5973,9 +6103,9 @@
         <v>38.202247191011239</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13">
       <c r="A83" s="59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B83" s="60" t="s">
         <v>15</v>
@@ -6014,9 +6144,9 @@
         <v>42.415730337078649</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13">
       <c r="A84" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B84" s="39" t="s">
         <v>15</v>
@@ -6036,7 +6166,7 @@
       <c r="G84" s="63">
         <v>1000</v>
       </c>
-      <c r="H84" s="81">
+      <c r="H84" s="80">
         <v>41843</v>
       </c>
       <c r="I84" s="9">
@@ -6055,9 +6185,9 @@
         <v>42.134831460674157</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13">
       <c r="A85" s="59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B85" s="60" t="s">
         <v>15</v>
@@ -6096,9 +6226,9 @@
         <v>29.466999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13">
       <c r="A86" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B86" s="39" t="s">
         <v>15</v>
@@ -6118,7 +6248,7 @@
       <c r="G86" s="63">
         <v>1000</v>
       </c>
-      <c r="H86" s="81">
+      <c r="H86" s="80">
         <v>41843</v>
       </c>
       <c r="I86" s="9">
@@ -6137,9 +6267,9 @@
         <v>16.277000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" s="79" customFormat="1">
       <c r="A87" s="59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B87" s="60" t="s">
         <v>15</v>
@@ -6178,9 +6308,9 @@
         <v>25.538</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13">
       <c r="A88" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B88" s="39" t="s">
         <v>15</v>
@@ -6200,7 +6330,7 @@
       <c r="G88" s="63">
         <v>1000</v>
       </c>
-      <c r="H88" s="81">
+      <c r="H88" s="80">
         <v>41843</v>
       </c>
       <c r="I88" s="9">
@@ -6219,9 +6349,9 @@
         <v>30.309000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" s="79" customFormat="1">
       <c r="A89" s="59" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B89" s="60" t="s">
         <v>15</v>
@@ -6260,9 +6390,9 @@
         <v>19.083500000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13">
       <c r="A90" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B90" s="39" t="s">
         <v>15</v>
@@ -6282,7 +6412,7 @@
       <c r="G90" s="63">
         <v>1000</v>
       </c>
-      <c r="H90" s="81">
+      <c r="H90" s="80">
         <v>41843</v>
       </c>
       <c r="I90" s="9">
@@ -6301,9 +6431,9 @@
         <v>16.277000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" s="79" customFormat="1">
       <c r="A91" s="59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B91" s="60" t="s">
         <v>15</v>
@@ -6342,9 +6472,9 @@
         <v>29.747499999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13">
       <c r="A92" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B92" s="39" t="s">
         <v>15</v>
@@ -6364,7 +6494,7 @@
       <c r="G92" s="63">
         <v>1000</v>
       </c>
-      <c r="H92" s="81">
+      <c r="H92" s="80">
         <v>41843</v>
       </c>
       <c r="I92" s="9">
@@ -6383,9 +6513,9 @@
         <v>24.135000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" s="79" customFormat="1">
       <c r="A93" s="59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B93" s="60" t="s">
         <v>15</v>
@@ -6424,29 +6554,29 @@
         <v>22.7315</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" s="79" customFormat="1">
       <c r="A94" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B94" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="D94" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" s="104">
+      <c r="B94" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" s="103">
         <v>41753</v>
       </c>
-      <c r="F94" s="103">
+      <c r="F94" s="102">
         <v>983.6</v>
       </c>
-      <c r="G94" s="103">
+      <c r="G94" s="102">
         <v>1000</v>
       </c>
-      <c r="H94" s="102">
+      <c r="H94" s="101">
         <v>41754</v>
       </c>
       <c r="I94" s="27">
@@ -6461,13 +6591,13 @@
       <c r="L94" s="27">
         <v>16</v>
       </c>
-      <c r="M94" s="101">
+      <c r="M94" s="100">
         <v>21.328499999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13">
       <c r="A95" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B95" s="39" t="s">
         <v>15</v>
@@ -6485,7 +6615,7 @@
       <c r="G95" s="44">
         <v>100</v>
       </c>
-      <c r="H95" s="119">
+      <c r="H95" s="118">
         <v>41835</v>
       </c>
       <c r="I95" s="9"/>
@@ -6496,9 +6626,9 @@
       </c>
       <c r="M95" s="44"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13">
       <c r="A96" s="59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B96" s="60" t="s">
         <v>15</v>
@@ -6516,7 +6646,7 @@
       <c r="G96" s="63">
         <v>100</v>
       </c>
-      <c r="H96" s="120">
+      <c r="H96" s="119">
         <v>41835</v>
       </c>
       <c r="I96" s="59"/>
@@ -6527,9 +6657,9 @@
       </c>
       <c r="M96" s="63"/>
     </row>
-    <row r="97" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" s="84" customFormat="1">
       <c r="A97" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B97" s="41" t="s">
         <v>15</v>
@@ -6540,14 +6670,14 @@
       <c r="D97" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E97" s="82"/>
-      <c r="F97" s="84">
+      <c r="E97" s="81"/>
+      <c r="F97" s="83">
         <v>257.70999999999998</v>
       </c>
-      <c r="G97" s="84">
+      <c r="G97" s="83">
         <v>100</v>
       </c>
-      <c r="H97" s="121">
+      <c r="H97" s="120">
         <v>41835</v>
       </c>
       <c r="I97" s="23"/>
@@ -6556,11 +6686,11 @@
       <c r="L97" s="23">
         <v>3</v>
       </c>
-      <c r="M97" s="84"/>
-    </row>
-    <row r="98" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M97" s="83"/>
+    </row>
+    <row r="98" spans="1:13" s="84" customFormat="1">
       <c r="A98" s="59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B98" s="60" t="s">
         <v>15</v>
@@ -6578,7 +6708,7 @@
       <c r="G98" s="63">
         <v>100</v>
       </c>
-      <c r="H98" s="120">
+      <c r="H98" s="119">
         <v>41835</v>
       </c>
       <c r="I98" s="59"/>
@@ -6589,9 +6719,9 @@
       </c>
       <c r="M98" s="63"/>
     </row>
-    <row r="99" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" s="84" customFormat="1">
       <c r="A99" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B99" s="41" t="s">
         <v>15</v>
@@ -6602,14 +6732,14 @@
       <c r="D99" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E99" s="82"/>
-      <c r="F99" s="84">
+      <c r="E99" s="81"/>
+      <c r="F99" s="83">
         <v>360.21</v>
       </c>
-      <c r="G99" s="84">
+      <c r="G99" s="83">
         <v>100</v>
       </c>
-      <c r="H99" s="121">
+      <c r="H99" s="120">
         <v>41835</v>
       </c>
       <c r="I99" s="23"/>
@@ -6618,11 +6748,11 @@
       <c r="L99" s="23">
         <v>5</v>
       </c>
-      <c r="M99" s="84"/>
-    </row>
-    <row r="100" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M99" s="83"/>
+    </row>
+    <row r="100" spans="1:13" s="84" customFormat="1">
       <c r="A100" s="59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B100" s="60" t="s">
         <v>15</v>
@@ -6640,7 +6770,7 @@
       <c r="G100" s="63">
         <v>100</v>
       </c>
-      <c r="H100" s="120">
+      <c r="H100" s="119">
         <v>41835</v>
       </c>
       <c r="I100" s="59"/>
@@ -6651,9 +6781,9 @@
       </c>
       <c r="M100" s="63"/>
     </row>
-    <row r="101" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" s="84" customFormat="1">
       <c r="A101" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B101" s="41" t="s">
         <v>15</v>
@@ -6664,14 +6794,14 @@
       <c r="D101" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E101" s="82"/>
-      <c r="F101" s="84">
+      <c r="E101" s="81"/>
+      <c r="F101" s="83">
         <v>346.39</v>
       </c>
-      <c r="G101" s="84">
+      <c r="G101" s="83">
         <v>100</v>
       </c>
-      <c r="H101" s="121">
+      <c r="H101" s="120">
         <v>41835</v>
       </c>
       <c r="I101" s="23"/>
@@ -6680,11 +6810,11 @@
       <c r="L101" s="23">
         <v>7</v>
       </c>
-      <c r="M101" s="84"/>
-    </row>
-    <row r="102" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M101" s="83"/>
+    </row>
+    <row r="102" spans="1:13" s="84" customFormat="1">
       <c r="A102" s="59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B102" s="60" t="s">
         <v>15</v>
@@ -6702,7 +6832,7 @@
       <c r="G102" s="63">
         <v>100</v>
       </c>
-      <c r="H102" s="120">
+      <c r="H102" s="119">
         <v>41835</v>
       </c>
       <c r="I102" s="59"/>
@@ -6713,9 +6843,9 @@
       </c>
       <c r="M102" s="63"/>
     </row>
-    <row r="103" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" s="84" customFormat="1">
       <c r="A103" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B103" s="41" t="s">
         <v>15</v>
@@ -6726,14 +6856,14 @@
       <c r="D103" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="82"/>
-      <c r="F103" s="84">
+      <c r="E103" s="81"/>
+      <c r="F103" s="83">
         <v>309.86</v>
       </c>
-      <c r="G103" s="84">
+      <c r="G103" s="83">
         <v>100</v>
       </c>
-      <c r="H103" s="121">
+      <c r="H103" s="120">
         <v>41835</v>
       </c>
       <c r="I103" s="23"/>
@@ -6742,11 +6872,11 @@
       <c r="L103" s="23">
         <v>10</v>
       </c>
-      <c r="M103" s="84"/>
-    </row>
-    <row r="104" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M103" s="83"/>
+    </row>
+    <row r="104" spans="1:13" s="84" customFormat="1">
       <c r="A104" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B104" s="60" t="s">
         <v>15</v>
@@ -6764,7 +6894,7 @@
       <c r="G104" s="63">
         <v>100</v>
       </c>
-      <c r="H104" s="120">
+      <c r="H104" s="119">
         <v>41835</v>
       </c>
       <c r="I104" s="59"/>
@@ -6775,9 +6905,9 @@
       </c>
       <c r="M104" s="63"/>
     </row>
-    <row r="105" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" s="84" customFormat="1">
       <c r="A105" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B105" s="41" t="s">
         <v>15</v>
@@ -6788,14 +6918,14 @@
       <c r="D105" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E105" s="82"/>
-      <c r="F105" s="84">
+      <c r="E105" s="81"/>
+      <c r="F105" s="83">
         <v>368.94</v>
       </c>
-      <c r="G105" s="84">
+      <c r="G105" s="83">
         <v>100</v>
       </c>
-      <c r="H105" s="121">
+      <c r="H105" s="120">
         <v>41835</v>
       </c>
       <c r="I105" s="23"/>
@@ -6804,11 +6934,11 @@
       <c r="L105" s="23">
         <v>12</v>
       </c>
-      <c r="M105" s="84"/>
-    </row>
-    <row r="106" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M105" s="83"/>
+    </row>
+    <row r="106" spans="1:13" s="84" customFormat="1">
       <c r="A106" s="59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B106" s="60" t="s">
         <v>15</v>
@@ -6826,7 +6956,7 @@
       <c r="G106" s="63">
         <v>100</v>
       </c>
-      <c r="H106" s="120">
+      <c r="H106" s="119">
         <v>41835</v>
       </c>
       <c r="I106" s="59"/>
@@ -6837,9 +6967,9 @@
       </c>
       <c r="M106" s="63"/>
     </row>
-    <row r="107" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" s="84" customFormat="1">
       <c r="A107" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B107" s="41" t="s">
         <v>15</v>
@@ -6850,14 +6980,14 @@
       <c r="D107" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E107" s="82"/>
-      <c r="F107" s="84">
+      <c r="E107" s="81"/>
+      <c r="F107" s="83">
         <v>144.94</v>
       </c>
-      <c r="G107" s="84">
+      <c r="G107" s="83">
         <v>100</v>
       </c>
-      <c r="H107" s="121">
+      <c r="H107" s="120">
         <v>41835</v>
       </c>
       <c r="I107" s="23"/>
@@ -6866,11 +6996,11 @@
       <c r="L107" s="23">
         <v>38</v>
       </c>
-      <c r="M107" s="84"/>
-    </row>
-    <row r="108" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M107" s="83"/>
+    </row>
+    <row r="108" spans="1:13" s="84" customFormat="1">
       <c r="A108" s="59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B108" s="60" t="s">
         <v>15</v>
@@ -6888,7 +7018,7 @@
       <c r="G108" s="63">
         <v>100</v>
       </c>
-      <c r="H108" s="120">
+      <c r="H108" s="119">
         <v>41835</v>
       </c>
       <c r="I108" s="59"/>
@@ -6899,9 +7029,9 @@
       </c>
       <c r="M108" s="63"/>
     </row>
-    <row r="109" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" s="84" customFormat="1">
       <c r="A109" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B109" s="41" t="s">
         <v>15</v>
@@ -6912,14 +7042,14 @@
       <c r="D109" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="82"/>
-      <c r="F109" s="84">
+      <c r="E109" s="81"/>
+      <c r="F109" s="83">
         <v>214.82</v>
       </c>
-      <c r="G109" s="84">
+      <c r="G109" s="83">
         <v>100</v>
       </c>
-      <c r="H109" s="121">
+      <c r="H109" s="120">
         <v>41835</v>
       </c>
       <c r="I109" s="23"/>
@@ -6928,29 +7058,29 @@
       <c r="L109" s="23">
         <v>40</v>
       </c>
-      <c r="M109" s="84"/>
-    </row>
-    <row r="110" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M109" s="83"/>
+    </row>
+    <row r="110" spans="1:13" s="79" customFormat="1">
       <c r="A110" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B110" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="D110" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" s="104"/>
-      <c r="F110" s="103">
+      <c r="B110" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D110" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" s="103"/>
+      <c r="F110" s="102">
         <v>222.41</v>
       </c>
-      <c r="G110" s="101">
+      <c r="G110" s="100">
         <v>100</v>
       </c>
-      <c r="H110" s="102">
+      <c r="H110" s="101">
         <v>41754</v>
       </c>
       <c r="I110" s="27"/>
@@ -6959,15 +7089,15 @@
       <c r="L110" s="27">
         <v>9</v>
       </c>
-      <c r="M110" s="103"/>
-    </row>
-    <row r="111" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M110" s="102"/>
+    </row>
+    <row r="111" spans="1:13" s="79" customFormat="1">
       <c r="A111" s="59"/>
       <c r="B111" s="60"/>
       <c r="C111" s="60"/>
       <c r="D111" s="60"/>
       <c r="E111" s="68"/>
-      <c r="F111" s="111"/>
+      <c r="F111" s="110"/>
       <c r="G111" s="62"/>
       <c r="H111" s="61"/>
       <c r="I111" s="59"/>
@@ -6976,9 +7106,9 @@
       <c r="L111" s="59"/>
       <c r="M111" s="62"/>
     </row>
-    <row r="112" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" s="79" customFormat="1">
       <c r="A112" s="59" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B112" s="60" t="s">
         <v>15</v>
@@ -7017,9 +7147,9 @@
         <v>28.44202898550725</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" s="79" customFormat="1">
       <c r="A113" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B113" s="39" t="s">
         <v>15</v>
@@ -7033,16 +7163,16 @@
       <c r="E113" s="64">
         <v>41893</v>
       </c>
-      <c r="F113" s="112">
+      <c r="F113" s="111">
         <v>842.83</v>
       </c>
-      <c r="G113" s="84">
+      <c r="G113" s="83">
         <v>1000</v>
       </c>
-      <c r="H113" s="81">
+      <c r="H113" s="80">
         <v>41897</v>
       </c>
-      <c r="I113" s="83">
+      <c r="I113" s="82">
         <v>2240.3000000000002</v>
       </c>
       <c r="J113" s="23">
@@ -7054,13 +7184,13 @@
       <c r="L113" s="23">
         <v>16</v>
       </c>
-      <c r="M113" s="83">
+      <c r="M113" s="82">
         <v>32.427536231884062</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" s="79" customFormat="1">
       <c r="A114" s="59" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B114" s="60" t="s">
         <v>15</v>
@@ -7099,9 +7229,9 @@
         <v>36.775362318840585</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13">
       <c r="A115" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B115" s="39" t="s">
         <v>15</v>
@@ -7115,16 +7245,16 @@
       <c r="E115" s="64">
         <v>41893</v>
       </c>
-      <c r="F115" s="112">
+      <c r="F115" s="111">
         <v>1801.83</v>
       </c>
-      <c r="G115" s="84">
+      <c r="G115" s="83">
         <v>1000</v>
       </c>
-      <c r="H115" s="81">
+      <c r="H115" s="80">
         <v>41897</v>
       </c>
-      <c r="I115" s="83">
+      <c r="I115" s="82">
         <v>2777.86</v>
       </c>
       <c r="J115" s="23">
@@ -7136,13 +7266,13 @@
       <c r="L115" s="23">
         <v>4</v>
       </c>
-      <c r="M115" s="83">
+      <c r="M115" s="82">
         <v>35.688405797101453</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="15.6" customHeight="1">
       <c r="A116" s="59" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B116" s="60" t="s">
         <v>15</v>
@@ -7181,9 +7311,9 @@
         <v>35.869565217391305</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="A117" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B117" s="39" t="s">
         <v>15</v>
@@ -7200,13 +7330,13 @@
       <c r="F117" s="44">
         <v>686.62</v>
       </c>
-      <c r="G117" s="84">
+      <c r="G117" s="83">
         <v>1000</v>
       </c>
-      <c r="H117" s="81">
+      <c r="H117" s="80">
         <v>41897</v>
       </c>
-      <c r="I117" s="83">
+      <c r="I117" s="82">
         <v>1963.46</v>
       </c>
       <c r="J117" s="9">
@@ -7222,9 +7352,9 @@
         <v>38.768115942028992</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="A118" s="59" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B118" s="60" t="s">
         <v>15</v>
@@ -7250,22 +7380,22 @@
       <c r="I118" s="62">
         <v>2128.13</v>
       </c>
-      <c r="J118" s="106">
+      <c r="J118" s="105">
         <v>4</v>
       </c>
-      <c r="K118" s="106">
+      <c r="K118" s="105">
         <v>2</v>
       </c>
-      <c r="L118" s="106">
+      <c r="L118" s="105">
         <v>13</v>
       </c>
-      <c r="M118" s="108">
+      <c r="M118" s="107">
         <v>45.289855072463773</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13">
       <c r="A119" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B119" s="39" t="s">
         <v>15</v>
@@ -7279,16 +7409,16 @@
       <c r="E119" s="64">
         <v>41893</v>
       </c>
-      <c r="F119" s="84">
+      <c r="F119" s="83">
         <v>1122.67</v>
       </c>
-      <c r="G119" s="84">
+      <c r="G119" s="83">
         <v>1000</v>
       </c>
-      <c r="H119" s="81">
+      <c r="H119" s="80">
         <v>41897</v>
       </c>
-      <c r="I119" s="83">
+      <c r="I119" s="82">
         <v>2739.61</v>
       </c>
       <c r="J119" s="3">
@@ -7304,9 +7434,9 @@
         <v>25.181159420289855</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13">
       <c r="A120" s="59" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B120" s="60" t="s">
         <v>15</v>
@@ -7332,22 +7462,22 @@
       <c r="I120" s="62">
         <v>2441.56</v>
       </c>
-      <c r="J120" s="106">
+      <c r="J120" s="105">
         <v>4</v>
       </c>
-      <c r="K120" s="106">
+      <c r="K120" s="105">
         <v>1</v>
       </c>
-      <c r="L120" s="106">
+      <c r="L120" s="105">
         <v>6</v>
       </c>
-      <c r="M120" s="108">
+      <c r="M120" s="107">
         <v>25.543478260869566</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13">
       <c r="A121" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B121" s="39" t="s">
         <v>15</v>
@@ -7361,16 +7491,16 @@
       <c r="E121" s="64">
         <v>41893</v>
       </c>
-      <c r="F121" s="84">
+      <c r="F121" s="83">
         <v>1495.1</v>
       </c>
-      <c r="G121" s="84">
+      <c r="G121" s="83">
         <v>1000</v>
       </c>
-      <c r="H121" s="81">
+      <c r="H121" s="80">
         <v>41897</v>
       </c>
-      <c r="I121" s="83">
+      <c r="I121" s="82">
         <v>2232.67</v>
       </c>
       <c r="J121" s="3">
@@ -7386,9 +7516,9 @@
         <v>35.326086956521742</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13">
       <c r="A122" s="59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B122" s="60" t="s">
         <v>15</v>
@@ -7414,22 +7544,22 @@
       <c r="I122" s="62">
         <v>2351.54</v>
       </c>
-      <c r="J122" s="106">
+      <c r="J122" s="105">
         <v>4</v>
       </c>
-      <c r="K122" s="106">
+      <c r="K122" s="105">
         <v>2</v>
       </c>
-      <c r="L122" s="106">
+      <c r="L122" s="105">
         <v>13</v>
       </c>
-      <c r="M122" s="108">
+      <c r="M122" s="107">
         <v>38.224637681159422</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13">
       <c r="A123" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B123" s="39" t="s">
         <v>15</v>
@@ -7443,16 +7573,16 @@
       <c r="E123" s="64">
         <v>41893</v>
       </c>
-      <c r="F123" s="84">
+      <c r="F123" s="83">
         <v>1332.85</v>
       </c>
-      <c r="G123" s="84">
+      <c r="G123" s="83">
         <v>1000</v>
       </c>
-      <c r="H123" s="81">
+      <c r="H123" s="80">
         <v>41897</v>
       </c>
-      <c r="I123" s="83">
+      <c r="I123" s="82">
         <v>2606.7800000000002</v>
       </c>
       <c r="J123" s="3">
@@ -7468,9 +7598,9 @@
         <v>37.318840579710148</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13">
       <c r="A124" s="59" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B124" s="60" t="s">
         <v>15</v>
@@ -7496,20 +7626,20 @@
       <c r="I124" s="62">
         <v>2568.73</v>
       </c>
-      <c r="J124" s="106">
+      <c r="J124" s="105">
         <v>4</v>
       </c>
-      <c r="K124" s="106">
+      <c r="K124" s="105">
         <v>1</v>
       </c>
-      <c r="L124" s="106">
+      <c r="L124" s="105">
         <v>18</v>
       </c>
-      <c r="M124" s="108">
+      <c r="M124" s="107">
         <v>32.608695652173914</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" s="84" customFormat="1">
       <c r="A125" s="23" t="s">
         <v>101</v>
       </c>
@@ -7522,35 +7652,35 @@
       <c r="D125" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E125" s="82">
+      <c r="E125" s="81">
         <v>41668</v>
       </c>
-      <c r="F125" s="84">
+      <c r="F125" s="83">
         <v>1834.03</v>
       </c>
-      <c r="G125" s="84">
+      <c r="G125" s="83">
         <v>1000</v>
       </c>
-      <c r="H125" s="81">
+      <c r="H125" s="80">
         <v>41669</v>
       </c>
-      <c r="I125" s="83">
+      <c r="I125" s="82">
         <v>1653.09</v>
       </c>
-      <c r="J125" s="105">
+      <c r="J125" s="104">
         <v>4</v>
       </c>
-      <c r="K125" s="105">
+      <c r="K125" s="104">
         <v>2</v>
       </c>
-      <c r="L125" s="105">
+      <c r="L125" s="104">
         <v>14</v>
       </c>
-      <c r="M125" s="116">
+      <c r="M125" s="115">
         <v>47.64492753623189</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="A126" s="59" t="s">
         <v>102</v>
       </c>
@@ -7569,51 +7699,51 @@
       <c r="F126" s="63">
         <v>1378.63</v>
       </c>
-      <c r="G126" s="122">
+      <c r="G126" s="121">
         <v>1000</v>
       </c>
-      <c r="H126" s="107">
+      <c r="H126" s="106">
         <v>41669</v>
       </c>
-      <c r="I126" s="108">
+      <c r="I126" s="107">
         <v>1440.16</v>
       </c>
-      <c r="J126" s="106">
+      <c r="J126" s="105">
         <v>4</v>
       </c>
-      <c r="K126" s="106">
+      <c r="K126" s="105">
         <v>2</v>
       </c>
-      <c r="L126" s="106">
-        <v>15</v>
-      </c>
-      <c r="M126" s="108">
+      <c r="L126" s="105">
+        <v>15</v>
+      </c>
+      <c r="M126" s="107">
         <v>56.159420289855078</v>
       </c>
     </row>
-    <row r="127" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" s="79" customFormat="1">
       <c r="A127" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B127" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="D127" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="E127" s="104">
+      <c r="B127" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D127" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" s="103">
         <v>41753</v>
       </c>
-      <c r="F127" s="103">
+      <c r="F127" s="102">
         <v>983.6</v>
       </c>
-      <c r="G127" s="103">
+      <c r="G127" s="102">
         <v>1000</v>
       </c>
-      <c r="H127" s="102">
+      <c r="H127" s="101">
         <v>41754</v>
       </c>
       <c r="I127" s="27">
@@ -7628,13 +7758,13 @@
       <c r="L127" s="27">
         <v>15</v>
       </c>
-      <c r="M127" s="101">
+      <c r="M127" s="100">
         <v>46.739130434782609</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B128" s="39" t="s">
         <v>15</v>
@@ -7646,26 +7776,26 @@
         <v>27</v>
       </c>
       <c r="E128" s="64"/>
-      <c r="F128" s="84">
+      <c r="F128" s="83">
         <v>270.79000000000002</v>
       </c>
-      <c r="G128" s="118">
+      <c r="G128" s="117">
         <v>100</v>
       </c>
-      <c r="H128" s="117">
+      <c r="H128" s="116">
         <v>41894</v>
       </c>
       <c r="I128" s="4"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
-      <c r="L128" s="118">
+      <c r="L128" s="117">
         <v>1</v>
       </c>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129" s="59" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B129" s="60" t="s">
         <v>15</v>
@@ -7694,9 +7824,9 @@
       </c>
       <c r="M129" s="61"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B130" s="39" t="s">
         <v>15</v>
@@ -7708,26 +7838,26 @@
         <v>27</v>
       </c>
       <c r="E130" s="64"/>
-      <c r="F130" s="84">
+      <c r="F130" s="83">
         <v>150.35</v>
       </c>
-      <c r="G130" s="84">
+      <c r="G130" s="83">
         <v>100</v>
       </c>
-      <c r="H130" s="81">
+      <c r="H130" s="80">
         <v>41894</v>
       </c>
-      <c r="I130" s="83"/>
+      <c r="I130" s="82"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
-      <c r="L130" s="118">
+      <c r="L130" s="117">
         <v>3</v>
       </c>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131" s="59" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B131" s="60" t="s">
         <v>15</v>
@@ -7756,9 +7886,9 @@
       </c>
       <c r="M131" s="61"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132" s="23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B132" s="41" t="s">
         <v>15</v>
@@ -7769,27 +7899,27 @@
       <c r="D132" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E132" s="82"/>
-      <c r="F132" s="84">
+      <c r="E132" s="81"/>
+      <c r="F132" s="83">
         <v>202.16</v>
       </c>
-      <c r="G132" s="84">
+      <c r="G132" s="83">
         <v>100</v>
       </c>
-      <c r="H132" s="81">
+      <c r="H132" s="80">
         <v>41894</v>
       </c>
-      <c r="I132" s="83"/>
+      <c r="I132" s="82"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
-      <c r="L132" s="118">
+      <c r="L132" s="117">
         <v>11</v>
       </c>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133" s="59" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B133" s="60" t="s">
         <v>15</v>
@@ -7818,9 +7948,9 @@
       </c>
       <c r="M133" s="61"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134" s="23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B134" s="41" t="s">
         <v>15</v>
@@ -7831,27 +7961,27 @@
       <c r="D134" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E134" s="82"/>
-      <c r="F134" s="84">
+      <c r="E134" s="81"/>
+      <c r="F134" s="83">
         <v>180.05</v>
       </c>
-      <c r="G134" s="84">
+      <c r="G134" s="83">
         <v>100</v>
       </c>
-      <c r="H134" s="81">
+      <c r="H134" s="80">
         <v>41894</v>
       </c>
-      <c r="I134" s="83"/>
+      <c r="I134" s="82"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
-      <c r="L134" s="118">
+      <c r="L134" s="117">
         <v>7</v>
       </c>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13">
       <c r="A135" s="59" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B135" s="60" t="s">
         <v>15</v>
@@ -7880,9 +8010,9 @@
       </c>
       <c r="M135" s="61"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136" s="23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B136" s="41" t="s">
         <v>15</v>
@@ -7893,27 +8023,27 @@
       <c r="D136" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E136" s="82"/>
-      <c r="F136" s="84">
+      <c r="E136" s="81"/>
+      <c r="F136" s="83">
         <v>227.16</v>
       </c>
-      <c r="G136" s="84">
+      <c r="G136" s="83">
         <v>100</v>
       </c>
-      <c r="H136" s="81">
+      <c r="H136" s="80">
         <v>41894</v>
       </c>
-      <c r="I136" s="83"/>
+      <c r="I136" s="82"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
-      <c r="L136" s="118">
+      <c r="L136" s="117">
         <v>2</v>
       </c>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13">
       <c r="A137" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B137" s="60" t="s">
         <v>15</v>
@@ -7942,9 +8072,9 @@
       </c>
       <c r="M137" s="61"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138" s="23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B138" s="41" t="s">
         <v>15</v>
@@ -7955,27 +8085,27 @@
       <c r="D138" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E138" s="82"/>
-      <c r="F138" s="84">
+      <c r="E138" s="81"/>
+      <c r="F138" s="83">
         <v>385.84</v>
       </c>
-      <c r="G138" s="84">
+      <c r="G138" s="83">
         <v>100</v>
       </c>
-      <c r="H138" s="81">
+      <c r="H138" s="80">
         <v>41894</v>
       </c>
-      <c r="I138" s="83"/>
+      <c r="I138" s="82"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
-      <c r="L138" s="118">
+      <c r="L138" s="117">
         <v>5</v>
       </c>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13">
       <c r="A139" s="59" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B139" s="60" t="s">
         <v>15</v>
@@ -8004,9 +8134,9 @@
       </c>
       <c r="M139" s="61"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13">
       <c r="A140" s="23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B140" s="41" t="s">
         <v>15</v>
@@ -8017,25 +8147,25 @@
       <c r="D140" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E140" s="82"/>
-      <c r="F140" s="84">
+      <c r="E140" s="81"/>
+      <c r="F140" s="83">
         <v>178.86</v>
       </c>
-      <c r="G140" s="84">
+      <c r="G140" s="83">
         <v>100</v>
       </c>
-      <c r="H140" s="81">
+      <c r="H140" s="80">
         <v>41894</v>
       </c>
-      <c r="I140" s="83"/>
+      <c r="I140" s="82"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
-      <c r="L140" s="118">
+      <c r="L140" s="117">
         <v>37</v>
       </c>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13">
       <c r="A141" s="59" t="s">
         <v>108</v>
       </c>
@@ -8066,7 +8196,7 @@
       </c>
       <c r="M141" s="61"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13">
       <c r="A142" s="9" t="s">
         <v>109</v>
       </c>
@@ -8079,45 +8209,45 @@
       <c r="D142" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E142" s="82"/>
-      <c r="F142" s="84">
+      <c r="E142" s="81"/>
+      <c r="F142" s="83">
         <v>374.13</v>
       </c>
-      <c r="G142" s="84">
+      <c r="G142" s="83">
         <v>100</v>
       </c>
-      <c r="H142" s="81">
+      <c r="H142" s="80">
         <v>41669</v>
       </c>
-      <c r="I142" s="83"/>
+      <c r="I142" s="82"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
-      <c r="L142" s="118">
+      <c r="L142" s="117">
         <v>40</v>
       </c>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" s="79" customFormat="1">
       <c r="A143" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B143" s="95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C143" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="D143" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="E143" s="104"/>
-      <c r="F143" s="103">
+      <c r="B143" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D143" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" s="103"/>
+      <c r="F143" s="102">
         <v>222.41</v>
       </c>
-      <c r="G143" s="103">
+      <c r="G143" s="102">
         <v>100</v>
       </c>
-      <c r="H143" s="102">
+      <c r="H143" s="101">
         <v>41754</v>
       </c>
       <c r="I143" s="27"/>
@@ -8126,9 +8256,9 @@
       <c r="L143" s="27">
         <v>39</v>
       </c>
-      <c r="M143" s="103"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M143" s="102"/>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="59"/>
       <c r="B144" s="60"/>
       <c r="C144" s="60"/>
@@ -8143,116 +8273,901 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A145" s="9"/>
-      <c r="B145" s="41"/>
-      <c r="C145" s="41"/>
-      <c r="D145" s="41"/>
-      <c r="E145" s="68"/>
-      <c r="F145" s="84"/>
-      <c r="G145" s="81"/>
-      <c r="H145" s="81"/>
-      <c r="I145" s="83"/>
-      <c r="J145" s="3"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146" s="59"/>
-      <c r="B146" s="60"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="68"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="61"/>
-      <c r="H146" s="61"/>
-      <c r="I146" s="62"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
-      <c r="M146" s="3"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A147" s="9"/>
-      <c r="B147" s="41"/>
-      <c r="C147" s="41"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="68"/>
-      <c r="F147" s="84"/>
-      <c r="G147" s="81"/>
-      <c r="H147" s="81"/>
-      <c r="I147" s="83"/>
-      <c r="J147" s="3"/>
-      <c r="K147" s="3"/>
-      <c r="L147" s="3"/>
-      <c r="M147" s="3"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A148" s="59"/>
-      <c r="B148" s="60"/>
-      <c r="C148" s="60"/>
-      <c r="D148" s="60"/>
-      <c r="E148" s="68"/>
-      <c r="F148" s="63"/>
-      <c r="G148" s="61"/>
-      <c r="H148" s="61"/>
-      <c r="I148" s="62"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
-      <c r="L148" s="3"/>
-      <c r="M148" s="3"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A149" s="9"/>
-      <c r="B149" s="41"/>
-      <c r="C149" s="41"/>
-      <c r="D149" s="41"/>
-      <c r="E149" s="64"/>
-      <c r="F149" s="84"/>
-      <c r="G149" s="81"/>
-      <c r="H149" s="81"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A150" s="59"/>
-      <c r="B150" s="60"/>
-      <c r="C150" s="60"/>
-      <c r="D150" s="60"/>
-      <c r="F150" s="63"/>
-      <c r="G150" s="61"/>
-      <c r="H150" s="61"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A151" s="9"/>
-      <c r="B151" s="41"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="41"/>
-      <c r="F151" s="84"/>
-      <c r="G151" s="81"/>
-      <c r="H151" s="81"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A152" s="59"/>
-      <c r="B152" s="60"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="60"/>
-      <c r="F152" s="63"/>
-      <c r="G152" s="61"/>
-      <c r="H152" s="61"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D153" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G153" s="81"/>
-      <c r="H153" s="81"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D154" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G154" s="61"/>
-      <c r="H154" s="61"/>
+    <row r="145" spans="1:13">
+      <c r="A145" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B145" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D145" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E145" s="68">
+        <v>41984</v>
+      </c>
+      <c r="F145" s="63">
+        <v>2140.39</v>
+      </c>
+      <c r="G145" s="63"/>
+      <c r="H145" s="61"/>
+      <c r="I145" s="62">
+        <v>1807.02</v>
+      </c>
+      <c r="J145" s="59"/>
+      <c r="K145" s="59"/>
+      <c r="L145" s="59"/>
+      <c r="M145" s="62"/>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B146" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D146" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E146" s="64">
+        <v>41984</v>
+      </c>
+      <c r="F146" s="111">
+        <v>3115.51</v>
+      </c>
+      <c r="G146" s="83"/>
+      <c r="H146" s="80"/>
+      <c r="I146" s="82">
+        <v>1942.93</v>
+      </c>
+      <c r="J146" s="23"/>
+      <c r="K146" s="23"/>
+      <c r="L146" s="23"/>
+      <c r="M146" s="82"/>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="B147" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D147" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E147" s="68">
+        <v>41984</v>
+      </c>
+      <c r="F147" s="63">
+        <v>3730.56</v>
+      </c>
+      <c r="G147" s="63"/>
+      <c r="H147" s="61"/>
+      <c r="I147" s="62">
+        <v>1696.91</v>
+      </c>
+      <c r="J147" s="59"/>
+      <c r="K147" s="59"/>
+      <c r="L147" s="59"/>
+      <c r="M147" s="62"/>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B148" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D148" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E148" s="64">
+        <v>41984</v>
+      </c>
+      <c r="F148" s="111">
+        <v>2432.87</v>
+      </c>
+      <c r="G148" s="83"/>
+      <c r="H148" s="80"/>
+      <c r="I148" s="82">
+        <v>1306.95</v>
+      </c>
+      <c r="J148" s="23"/>
+      <c r="K148" s="23"/>
+      <c r="L148" s="23"/>
+      <c r="M148" s="82"/>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B149" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D149" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E149" s="68">
+        <v>41984</v>
+      </c>
+      <c r="F149" s="63">
+        <v>2472.3000000000002</v>
+      </c>
+      <c r="G149" s="63"/>
+      <c r="H149" s="61"/>
+      <c r="I149" s="62">
+        <v>1391.23</v>
+      </c>
+      <c r="J149" s="59"/>
+      <c r="K149" s="59"/>
+      <c r="L149" s="59"/>
+      <c r="M149" s="62"/>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B150" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D150" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E150" s="64">
+        <v>41984</v>
+      </c>
+      <c r="F150" s="44">
+        <v>3155.38</v>
+      </c>
+      <c r="G150" s="83"/>
+      <c r="H150" s="80"/>
+      <c r="I150" s="82">
+        <v>1037.58</v>
+      </c>
+      <c r="J150" s="23"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="11"/>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B151" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E151" s="68">
+        <v>41984</v>
+      </c>
+      <c r="F151" s="63">
+        <v>3084.06</v>
+      </c>
+      <c r="G151" s="63"/>
+      <c r="H151" s="61"/>
+      <c r="I151" s="62">
+        <v>272.45</v>
+      </c>
+      <c r="J151" s="59"/>
+      <c r="K151" s="105"/>
+      <c r="L151" s="105"/>
+      <c r="M151" s="107"/>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B152" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D152" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E152" s="64">
+        <v>41984</v>
+      </c>
+      <c r="F152" s="83">
+        <v>1145.1099999999999</v>
+      </c>
+      <c r="G152" s="83"/>
+      <c r="H152" s="80"/>
+      <c r="I152" s="82">
+        <v>308.73</v>
+      </c>
+      <c r="J152" s="23"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="4"/>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="B153" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D153" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E153" s="68">
+        <v>41984</v>
+      </c>
+      <c r="F153" s="63">
+        <v>3373.53</v>
+      </c>
+      <c r="G153" s="63"/>
+      <c r="H153" s="61"/>
+      <c r="I153" s="62">
+        <v>262.56</v>
+      </c>
+      <c r="J153" s="59"/>
+      <c r="K153" s="105"/>
+      <c r="L153" s="105"/>
+      <c r="M153" s="107"/>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B154" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D154" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E154" s="64">
+        <v>41984</v>
+      </c>
+      <c r="F154" s="83">
+        <v>1926.59</v>
+      </c>
+      <c r="G154" s="83"/>
+      <c r="H154" s="80"/>
+      <c r="I154" s="82">
+        <v>796.43</v>
+      </c>
+      <c r="J154" s="23"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="4"/>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B155" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D155" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E155" s="68">
+        <v>41984</v>
+      </c>
+      <c r="F155" s="63">
+        <v>2593.9699999999998</v>
+      </c>
+      <c r="G155" s="63"/>
+      <c r="H155" s="61"/>
+      <c r="I155" s="62">
+        <v>1429.43</v>
+      </c>
+      <c r="J155" s="59"/>
+      <c r="K155" s="105"/>
+      <c r="L155" s="105"/>
+      <c r="M155" s="107"/>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B156" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D156" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E156" s="64">
+        <v>41984</v>
+      </c>
+      <c r="F156" s="83">
+        <v>1540.99</v>
+      </c>
+      <c r="G156" s="83"/>
+      <c r="H156" s="80"/>
+      <c r="I156" s="82">
+        <v>822.79</v>
+      </c>
+      <c r="J156" s="23"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="4"/>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="B157" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D157" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E157" s="68">
+        <v>41984</v>
+      </c>
+      <c r="F157" s="63">
+        <v>2042.1</v>
+      </c>
+      <c r="G157" s="63"/>
+      <c r="H157" s="61"/>
+      <c r="I157" s="62">
+        <v>743.68</v>
+      </c>
+      <c r="J157" s="59"/>
+      <c r="K157" s="105"/>
+      <c r="L157" s="105"/>
+      <c r="M157" s="107"/>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B158" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D158" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E158" s="81">
+        <v>41984</v>
+      </c>
+      <c r="F158" s="83">
+        <v>1825.5</v>
+      </c>
+      <c r="G158" s="83"/>
+      <c r="H158" s="80"/>
+      <c r="I158" s="82">
+        <v>1778.47</v>
+      </c>
+      <c r="J158" s="23"/>
+      <c r="K158" s="104"/>
+      <c r="L158" s="104"/>
+      <c r="M158" s="115"/>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="B159" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D159" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E159" s="68">
+        <v>41984</v>
+      </c>
+      <c r="F159" s="63">
+        <v>2151.11</v>
+      </c>
+      <c r="G159" s="121"/>
+      <c r="H159" s="106"/>
+      <c r="I159" s="107">
+        <v>2716.73</v>
+      </c>
+      <c r="J159" s="59"/>
+      <c r="K159" s="105"/>
+      <c r="L159" s="105"/>
+      <c r="M159" s="107"/>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B160" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D160" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E160" s="81">
+        <v>41984</v>
+      </c>
+      <c r="F160" s="83">
+        <v>2564.0300000000002</v>
+      </c>
+      <c r="G160" s="83"/>
+      <c r="H160" s="80"/>
+      <c r="I160" s="23">
+        <v>999.33</v>
+      </c>
+      <c r="J160" s="23"/>
+      <c r="K160" s="23"/>
+      <c r="L160" s="23"/>
+      <c r="M160" s="82"/>
+    </row>
+    <row r="161" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A161" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="B161" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D161" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E161" s="68">
+        <v>41985</v>
+      </c>
+      <c r="F161" s="63">
+        <v>2230.87</v>
+      </c>
+      <c r="G161" s="121"/>
+      <c r="H161" s="106"/>
+      <c r="I161" s="107"/>
+      <c r="J161" s="105"/>
+      <c r="K161" s="105"/>
+      <c r="L161" s="121"/>
+      <c r="M161" s="105"/>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B162" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D162" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E162" s="81">
+        <v>41985</v>
+      </c>
+      <c r="F162" s="83">
+        <v>2600.21</v>
+      </c>
+      <c r="G162" s="83"/>
+      <c r="H162" s="80"/>
+      <c r="I162" s="82"/>
+      <c r="J162" s="80"/>
+      <c r="K162" s="80"/>
+      <c r="L162" s="83"/>
+      <c r="M162" s="80"/>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="B163" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D163" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E163" s="68">
+        <v>41985</v>
+      </c>
+      <c r="F163" s="63">
+        <v>1852.2</v>
+      </c>
+      <c r="G163" s="63"/>
+      <c r="H163" s="61"/>
+      <c r="I163" s="62"/>
+      <c r="J163" s="105"/>
+      <c r="K163" s="105"/>
+      <c r="L163" s="121"/>
+      <c r="M163" s="105"/>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B164" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D164" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E164" s="81">
+        <v>41985</v>
+      </c>
+      <c r="F164" s="83">
+        <v>2088.83</v>
+      </c>
+      <c r="G164" s="83"/>
+      <c r="H164" s="80"/>
+      <c r="I164" s="82"/>
+      <c r="J164" s="80"/>
+      <c r="K164" s="80"/>
+      <c r="L164" s="83"/>
+      <c r="M164" s="80"/>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="B165" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D165" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E165" s="68">
+        <v>41985</v>
+      </c>
+      <c r="F165" s="63">
+        <v>1996.12</v>
+      </c>
+      <c r="G165" s="63"/>
+      <c r="H165" s="61"/>
+      <c r="I165" s="62"/>
+      <c r="J165" s="105"/>
+      <c r="K165" s="105"/>
+      <c r="L165" s="121"/>
+      <c r="M165" s="105"/>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B166" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D166" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E166" s="81">
+        <v>41985</v>
+      </c>
+      <c r="F166" s="83">
+        <v>2245.13</v>
+      </c>
+      <c r="G166" s="83"/>
+      <c r="H166" s="80"/>
+      <c r="I166" s="82"/>
+      <c r="J166" s="80"/>
+      <c r="K166" s="80"/>
+      <c r="L166" s="83"/>
+      <c r="M166" s="80"/>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="B167" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C167" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D167" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E167" s="68">
+        <v>41985</v>
+      </c>
+      <c r="F167" s="63">
+        <v>2603.17</v>
+      </c>
+      <c r="G167" s="63"/>
+      <c r="H167" s="61"/>
+      <c r="I167" s="62"/>
+      <c r="J167" s="105"/>
+      <c r="K167" s="105"/>
+      <c r="L167" s="121"/>
+      <c r="M167" s="105"/>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B168" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D168" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E168" s="81">
+        <v>41985</v>
+      </c>
+      <c r="F168" s="83">
+        <v>1841.58</v>
+      </c>
+      <c r="G168" s="83"/>
+      <c r="H168" s="80"/>
+      <c r="I168" s="82"/>
+      <c r="J168" s="80"/>
+      <c r="K168" s="80"/>
+      <c r="L168" s="83"/>
+      <c r="M168" s="80"/>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B169" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D169" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E169" s="68">
+        <v>41985</v>
+      </c>
+      <c r="F169" s="63">
+        <v>1442.02</v>
+      </c>
+      <c r="G169" s="63"/>
+      <c r="H169" s="61"/>
+      <c r="I169" s="62"/>
+      <c r="J169" s="105"/>
+      <c r="K169" s="105"/>
+      <c r="L169" s="121"/>
+      <c r="M169" s="105"/>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B170" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D170" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E170" s="81">
+        <v>41985</v>
+      </c>
+      <c r="F170" s="83">
+        <v>2070.71</v>
+      </c>
+      <c r="G170" s="83"/>
+      <c r="H170" s="80"/>
+      <c r="I170" s="82"/>
+      <c r="J170" s="80"/>
+      <c r="K170" s="80"/>
+      <c r="L170" s="83"/>
+      <c r="M170" s="80"/>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B171" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D171" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E171" s="68">
+        <v>41985</v>
+      </c>
+      <c r="F171" s="63">
+        <v>2050.33</v>
+      </c>
+      <c r="G171" s="63"/>
+      <c r="H171" s="61"/>
+      <c r="I171" s="62"/>
+      <c r="J171" s="105"/>
+      <c r="K171" s="105"/>
+      <c r="L171" s="121"/>
+      <c r="M171" s="105"/>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B172" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D172" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E172" s="81">
+        <v>41985</v>
+      </c>
+      <c r="F172" s="83">
+        <v>2390.73</v>
+      </c>
+      <c r="G172" s="83"/>
+      <c r="H172" s="80"/>
+      <c r="I172" s="82"/>
+      <c r="J172" s="80"/>
+      <c r="K172" s="80"/>
+      <c r="L172" s="83"/>
+      <c r="M172" s="80"/>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="B173" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C173" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D173" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E173" s="68">
+        <v>41985</v>
+      </c>
+      <c r="F173" s="63">
+        <v>2778.79</v>
+      </c>
+      <c r="G173" s="63"/>
+      <c r="H173" s="61"/>
+      <c r="I173" s="62"/>
+      <c r="J173" s="105"/>
+      <c r="K173" s="105"/>
+      <c r="L173" s="121"/>
+      <c r="M173" s="105"/>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B174" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C174" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D174" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E174" s="81">
+        <v>41985</v>
+      </c>
+      <c r="F174" s="83">
+        <v>2195.16</v>
+      </c>
+      <c r="G174" s="83"/>
+      <c r="H174" s="80"/>
+      <c r="I174" s="82"/>
+      <c r="J174" s="80"/>
+      <c r="K174" s="80"/>
+      <c r="L174" s="83"/>
+      <c r="M174" s="80"/>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="B175" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D175" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="E175" s="68">
+        <v>41985</v>
+      </c>
+      <c r="F175" s="63">
+        <v>1544.75</v>
+      </c>
+      <c r="G175" s="63"/>
+      <c r="H175" s="61"/>
+      <c r="I175" s="62"/>
+      <c r="J175" s="105"/>
+      <c r="K175" s="105"/>
+      <c r="L175" s="121"/>
+      <c r="M175" s="105"/>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B176" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C176" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D176" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E176" s="81">
+        <v>41985</v>
+      </c>
+      <c r="F176" s="83">
+        <v>2657.98</v>
+      </c>
+      <c r="G176" s="83"/>
+      <c r="H176" s="80"/>
+      <c r="I176" s="23"/>
+      <c r="J176" s="23"/>
+      <c r="K176" s="23"/>
+      <c r="L176" s="23"/>
+      <c r="M176" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8265,627 +9180,798 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I23"/>
+  <dimension ref="A4:F41"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.44140625" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="6.88671875" customWidth="1"/>
     <col min="7" max="7" width="13.109375" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" customWidth="1"/>
     <col min="9" max="9" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="57.6">
       <c r="A4" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>118</v>
+      <c r="E4" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
-        <v>168</v>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="70" t="str">
+        <f>Pravenec!A145</f>
+        <v>HXB27_1 liver total RNA</v>
       </c>
       <c r="B5" s="4">
-        <f>1000/213.2</f>
-        <v>4.6904315196998123</v>
+        <f>1000/Pravenec!I145</f>
+        <v>0.55339730606191406</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C12" si="0">6-B5</f>
-        <v>1.3095684803001877</v>
+        <f>6-B5</f>
+        <v>5.446602693938086</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="71">
-        <v>2</v>
+      <c r="E5" s="71" t="s">
+        <v>233</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="4">
-        <f>100/(270.79/5)</f>
-        <v>1.8464492780383321</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" ref="H5:H12" si="1">5-G5</f>
-        <v>3.1535507219616679</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
-        <v>176</v>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="70" t="str">
+        <f>Pravenec!A146</f>
+        <v>SHR_1 liver total RNA</v>
       </c>
       <c r="B6" s="4">
-        <f>1000/244.2</f>
-        <v>4.0950040950040956</v>
+        <f>1000/Pravenec!I146</f>
+        <v>0.5146865816061309</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9049959049959044</v>
+        <f t="shared" ref="C6:C12" si="0">6-B6</f>
+        <v>5.4853134183938694</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="71">
-        <v>6</v>
+      <c r="E6" s="71" t="s">
+        <v>234</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4">
-        <f>100/(227.16/5)</f>
-        <v>2.2010917415037858</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="1"/>
-        <v>2.7989082584962142</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="70" t="str">
+        <f>Pravenec!A147</f>
+        <v>HXB7_1 liver total RNA</v>
       </c>
       <c r="B7" s="4">
-        <f>1000/178.2</f>
-        <v>5.6116722783389452</v>
+        <f>1000/Pravenec!I147</f>
+        <v>0.58930644524459164</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>0.38832772166105478</v>
+        <v>5.410693554755408</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="71">
-        <v>5</v>
+      <c r="E7" s="71" t="s">
+        <v>235</v>
       </c>
       <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4">
-        <f>100/(150.35/5)</f>
-        <v>3.3255736614566014</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6744263385433986</v>
-      </c>
-      <c r="I7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
-        <v>171</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="70" t="str">
+        <f>Pravenec!A148</f>
+        <v>SHR_2 liver total RNA</v>
       </c>
       <c r="B8" s="4">
-        <f>1000/277.8</f>
-        <v>3.599712023038157</v>
+        <f>1000/Pravenec!I148</f>
+        <v>0.76514021194383863</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>2.400287976961843</v>
+        <v>5.2348597880561609</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8" s="71">
-        <v>4</v>
+      <c r="E8" s="71" t="s">
+        <v>241</v>
       </c>
       <c r="F8" s="3">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4">
-        <f>100/(430.07/5)</f>
-        <v>1.1626014369753761</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="1"/>
-        <v>3.8373985630246237</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
-        <v>178</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="70" t="str">
+        <f>Pravenec!A149</f>
+        <v>HXB25_2 liver total RNA</v>
       </c>
       <c r="B9" s="4">
-        <f>1000/235.2</f>
-        <v>4.2517006802721093</v>
+        <f>1000/Pravenec!I149</f>
+        <v>0.71878841025567308</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>1.7482993197278907</v>
+        <v>5.281211589744327</v>
       </c>
       <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="71">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
-        <f>100/(385.84/5)</f>
-        <v>1.2958739373833714</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="1"/>
-        <v>3.7041260626166288</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
-        <v>173</v>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="70" t="str">
+        <f>Pravenec!A150</f>
+        <v>HXB25_1 liver total RNA</v>
       </c>
       <c r="B10" s="4">
-        <f>1000/196.3</f>
-        <v>5.0942435048395307</v>
+        <f>1000/Pravenec!I150</f>
+        <v>0.9637811060351974</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>0.9057564951604693</v>
+        <v>5.0362188939648025</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="71">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>245</v>
       </c>
       <c r="F10" s="3">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4">
-        <f>100/(233.76/5)</f>
-        <v>2.1389459274469544</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>2.8610540725530456</v>
-      </c>
-      <c r="I10" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
-        <v>174</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="70" t="str">
+        <f>Pravenec!A151</f>
+        <v>HXB7_2 liver total RNA</v>
       </c>
       <c r="B11" s="4">
-        <f>1000/212.8</f>
-        <v>4.6992481203007515</v>
+        <f>1000/Pravenec!I151</f>
+        <v>3.670398238208846</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>1.3007518796992485</v>
+        <v>2.329601761791154</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="71">
-        <v>13</v>
+      <c r="E11" s="71" t="s">
+        <v>246</v>
       </c>
       <c r="F11" s="3">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4">
-        <f>100/(180.05/5)</f>
-        <v>2.7770063871146902</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="1"/>
-        <v>2.2229936128853098</v>
-      </c>
-      <c r="I11" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
-        <v>194</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="70" t="str">
+        <f>Pravenec!A152</f>
+        <v>HXB27_2 liver total RNA</v>
       </c>
       <c r="B12" s="4">
-        <f>1000/1653.09</f>
-        <v>0.60492774138129202</v>
+        <f>1000/Pravenec!I152</f>
+        <v>3.2390762154633497</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>5.3950722586187077</v>
+        <v>2.7609237845366503</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="71">
-        <v>14</v>
+      <c r="E12" s="71" t="s">
+        <v>238</v>
       </c>
       <c r="F12" s="3">
-        <v>7</v>
-      </c>
-      <c r="G12" s="4">
-        <f>100/(Pravenec!F141/5)</f>
-        <v>1.42571998859424</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>3.5742800114057598</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
-        <v>169</v>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="72" t="str">
+        <f>Pravenec!A153</f>
+        <v>HXB17_1 liver total RNA</v>
       </c>
       <c r="B14" s="4">
-        <f>1000/224</f>
-        <v>4.4642857142857144</v>
+        <f>1000/Pravenec!I153</f>
+        <v>3.8086532602071905</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ref="C14:C21" si="2">6-B14</f>
-        <v>1.5357142857142856</v>
+        <f>6-B14</f>
+        <v>2.1913467397928095</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="72">
-        <v>16</v>
+      <c r="E14" s="72" t="s">
+        <v>236</v>
       </c>
       <c r="F14" s="3">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4">
-        <f>100/(462.66/5)</f>
-        <v>1.0807072148013659</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" ref="H14:H21" si="3">5-G14</f>
-        <v>3.9192927851986341</v>
-      </c>
-      <c r="I14" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
-        <v>179</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="72" t="str">
+        <f>Pravenec!A154</f>
+        <v>HXB2_2 liver total RNA</v>
       </c>
       <c r="B15" s="4">
-        <f>1000/260.7</f>
-        <v>3.8358266206367473</v>
+        <f>1000/Pravenec!I154</f>
+        <v>1.2556031289629974</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="2"/>
-        <v>2.1641733793632527</v>
+        <f t="shared" ref="C15:C21" si="1">6-B15</f>
+        <v>4.7443968710370026</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="72">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>243</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="4">
-        <f>100/(394.76/5)</f>
-        <v>1.2665923599148849</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="3"/>
-        <v>3.7334076400851153</v>
-      </c>
-      <c r="I15" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
-        <v>172</v>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="72" t="str">
+        <f>Pravenec!A155</f>
+        <v>HXB13_2 liver total RNA</v>
       </c>
       <c r="B16" s="4">
-        <f>1000/252.5</f>
-        <v>3.9603960396039604</v>
+        <f>1000/Pravenec!I155</f>
+        <v>0.69957955268883398</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="2"/>
-        <v>2.0396039603960396</v>
+        <f t="shared" si="1"/>
+        <v>5.3004204473111658</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="72">
-        <v>19</v>
+      <c r="E16" s="72" t="s">
+        <v>244</v>
       </c>
       <c r="F16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="72" t="str">
+        <f>Pravenec!A156</f>
+        <v>BXH12_1 liver total RNA</v>
+      </c>
+      <c r="B17" s="4">
+        <f>1000/Pravenec!I156</f>
+        <v>1.2153769491607822</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>4.784623050839218</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G16" s="4">
-        <f>100/(202.16/5)</f>
-        <v>2.4732884843688168</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="3"/>
-        <v>2.5267115156311832</v>
-      </c>
-      <c r="I16" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="4">
-        <f>1000/223.3</f>
-        <v>4.4782803403493059</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="2"/>
-        <v>1.5217196596506941</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="72">
-        <v>18</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4">
-        <f>100/(192.86/5)</f>
-        <v>2.5925541843824536</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="3"/>
-        <v>2.4074458156175464</v>
-      </c>
-      <c r="I17" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="72" t="s">
-        <v>180</v>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="72" t="str">
+        <f>Pravenec!A157</f>
+        <v>HXB2_1 liver total RNA</v>
       </c>
       <c r="B18" s="4">
-        <f>1000/256.9</f>
-        <v>3.8925652004671081</v>
+        <f>1000/Pravenec!I157</f>
+        <v>1.3446643717728055</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>2.1074347995328919</v>
+        <f t="shared" si="1"/>
+        <v>4.6553356282271947</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="72">
-        <v>18</v>
+      <c r="E18" s="72" t="s">
+        <v>248</v>
       </c>
       <c r="F18" s="3">
-        <v>7</v>
-      </c>
-      <c r="G18" s="4">
-        <f>100/(178.86/5)</f>
-        <v>2.7954825002795478</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="3"/>
-        <v>2.2045174997204522</v>
-      </c>
-      <c r="I18" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="72" t="s">
-        <v>175</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="72" t="str">
+        <f>Pravenec!A158</f>
+        <v>BXH12_2 liver total RNA</v>
       </c>
       <c r="B19" s="4">
-        <f>1000/274</f>
-        <v>3.6496350364963503</v>
+        <f>1000/Pravenec!I158</f>
+        <v>0.56228106181155713</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>2.3503649635036497</v>
+        <f t="shared" si="1"/>
+        <v>5.4377189381884428</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="72">
-        <v>7</v>
+      <c r="E19" s="72" t="s">
+        <v>237</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <f>100/(269.76/5)</f>
-        <v>1.8534994068801898</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="3"/>
-        <v>3.1465005931198102</v>
-      </c>
-      <c r="I19" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
-        <v>196</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="72" t="str">
+        <f>Pravenec!A159</f>
+        <v>HXB13_1 liver total RNA</v>
       </c>
       <c r="B20" s="4">
-        <f>1000/Pravenec!F43</f>
-        <v>0.57088052612349283</v>
+        <f>1000/Pravenec!I159</f>
+        <v>0.36808957827977018</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>5.429119473876507</v>
+        <f t="shared" si="1"/>
+        <v>5.6319104217202298</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="72">
-        <v>15</v>
+      <c r="E20" s="72" t="s">
+        <v>239</v>
       </c>
       <c r="F20" s="3">
-        <v>8</v>
-      </c>
-      <c r="G20" s="4">
-        <f>100/(Pravenec!F143/5)</f>
-        <v>2.2481003551998562</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="3"/>
-        <v>2.7518996448001438</v>
-      </c>
-      <c r="I20" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="72" t="s">
-        <v>195</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="72" t="str">
+        <f>Pravenec!A160</f>
+        <v>HXB17_2 liver total RNA</v>
       </c>
       <c r="B21" s="4">
-        <f>1000/1440.16</f>
-        <v>0.69436729252305296</v>
+        <f>1000/Pravenec!I160</f>
+        <v>1.0006704492009646</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>5.3056327074769474</v>
+        <f t="shared" si="1"/>
+        <v>4.9993295507990352</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="72">
-        <v>15</v>
+      <c r="E21" s="72" t="s">
+        <v>240</v>
       </c>
       <c r="F21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="113"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="114"/>
+    </row>
+    <row r="24" spans="1:6" ht="43.2">
+      <c r="A24" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="70" t="str">
+        <f>Pravenec!A161</f>
+        <v>HXB27_1 liver small RNA</v>
+      </c>
+      <c r="B25" s="4">
+        <f>100/(Pravenec!F161/51)</f>
+        <v>2.2861036277326785</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ref="C25:C32" si="2">5-B25</f>
+        <v>2.7138963722673215</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="70" t="str">
+        <f>Pravenec!A162</f>
+        <v>SHR_1 liver small RNA</v>
+      </c>
+      <c r="B26" s="4">
+        <f>100/(Pravenec!F162/51)</f>
+        <v>1.9613800423811922</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="2"/>
+        <v>3.038619957618808</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="70" t="str">
+        <f>Pravenec!A163</f>
+        <v>HXB7_1 liver small RNA</v>
+      </c>
+      <c r="B27" s="4">
+        <f>100/(Pravenec!F163/51)</f>
+        <v>2.75348234531908</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="2"/>
+        <v>2.24651765468092</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="70" t="str">
+        <f>Pravenec!A164</f>
+        <v>SHR_2 liver small RNA</v>
+      </c>
+      <c r="B28" s="4">
+        <f>100/(Pravenec!F164/51)</f>
+        <v>2.441558192863948</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="2"/>
+        <v>2.558441807136052</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="70" t="str">
+        <f>Pravenec!A165</f>
+        <v>HXB25_2 liver small RNA</v>
+      </c>
+      <c r="B29" s="4">
+        <f>100/(Pravenec!F165/51)</f>
+        <v>2.5549566158347194</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4450433841652806</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="70" t="str">
+        <f>Pravenec!A166</f>
+        <v>HXB25_1 liver small RNA</v>
+      </c>
+      <c r="B30" s="4">
+        <f>100/(Pravenec!F166/51)</f>
+        <v>2.2715833826994429</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7284166173005571</v>
+      </c>
+      <c r="D30" s="3">
         <v>6</v>
       </c>
-      <c r="G21" s="4">
-        <f>100/(Pravenec!F142/5)</f>
-        <v>1.3364338598882743</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="E30" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="70" t="str">
+        <f>Pravenec!A167</f>
+        <v>HXB7_2 liver small RNA</v>
+      </c>
+      <c r="B31" s="4">
+        <f>100/(Pravenec!F167/51)</f>
+        <v>1.9591498058136809</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0408501941863193</v>
+      </c>
+      <c r="D31" s="3">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="70" t="str">
+        <f>Pravenec!A168</f>
+        <v>HXB27_2 liver small RNA</v>
+      </c>
+      <c r="B32" s="4">
+        <f>100/(Pravenec!F168/51)</f>
+        <v>2.7693610921056919</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2306389078943081</v>
+      </c>
+      <c r="D32" s="3">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="72" t="str">
+        <f>Pravenec!A169</f>
+        <v>HXB17_1 liver small RNA</v>
+      </c>
+      <c r="B34" s="4">
+        <f>100/(Pravenec!F169/51)</f>
+        <v>3.5367054548480605</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" ref="C34:C41" si="3">5-B34</f>
+        <v>1.4632945451519395</v>
+      </c>
+      <c r="D34" s="3">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="72" t="str">
+        <f>Pravenec!A170</f>
+        <v>HXB2_2 liver small RNA</v>
+      </c>
+      <c r="B35" s="4">
+        <f>100/(Pravenec!F170/51)</f>
+        <v>2.462923345132829</v>
+      </c>
+      <c r="C35" s="4">
         <f t="shared" si="3"/>
-        <v>3.6635661401117257</v>
-      </c>
-      <c r="I21" s="3">
+        <v>2.537076654867171</v>
+      </c>
+      <c r="D35" s="3">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="72" t="str">
+        <f>Pravenec!A171</f>
+        <v>HXB13_2 liver small RNA</v>
+      </c>
+      <c r="B36" s="4">
+        <f>100/(Pravenec!F171/51)</f>
+        <v>2.4874044665980599</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5125955334019401</v>
+      </c>
+      <c r="D36" s="3">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="72" t="str">
+        <f>Pravenec!A172</f>
+        <v>BXH12_1 liver small RNA</v>
+      </c>
+      <c r="B37" s="4">
+        <f>100/(Pravenec!F172/51)</f>
+        <v>2.1332396381021699</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="3"/>
+        <v>2.8667603618978301</v>
+      </c>
+      <c r="D37" s="3">
+        <v>12</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="72" t="str">
+        <f>Pravenec!A173</f>
+        <v>HXB2_1 liver small RNA</v>
+      </c>
+      <c r="B38" s="4">
+        <f>100/(Pravenec!F173/51)</f>
+        <v>1.8353312053087856</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="3"/>
+        <v>3.1646687946912144</v>
+      </c>
+      <c r="D38" s="3">
+        <v>37</v>
+      </c>
+      <c r="E38" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="72" t="str">
+        <f>Pravenec!A174</f>
+        <v>BXH12_2 liver small RNA</v>
+      </c>
+      <c r="B39" s="4">
+        <f>100/(Pravenec!F174/51)</f>
+        <v>2.3232930629202428</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="3"/>
+        <v>2.6767069370797572</v>
+      </c>
+      <c r="D39" s="3">
+        <v>38</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="72" t="str">
+        <f>Pravenec!A175</f>
+        <v>HXB13_1 liver small RNA</v>
+      </c>
+      <c r="B40" s="4">
+        <f>100/(Pravenec!F175/51)</f>
+        <v>3.3015050979122837</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="3"/>
+        <v>1.6984949020877163</v>
+      </c>
+      <c r="D40" s="3">
+        <v>39</v>
+      </c>
+      <c r="E40" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="72" t="str">
+        <f>Pravenec!A176</f>
+        <v>HXB17_2 liver small RNA</v>
+      </c>
+      <c r="B41" s="4">
+        <f>100/(Pravenec!F176/51)</f>
+        <v>1.9187503291973604</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="3"/>
+        <v>3.0812496708026398</v>
+      </c>
+      <c r="D41" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="114" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="115" t="s">
-        <v>201</v>
+      <c r="E41" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H55"/>
+  <dimension ref="A4:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -8899,9 +9985,9 @@
         <v>140.00000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5">
         <v>595</v>
@@ -8922,9 +10008,9 @@
         <v>137.20000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6">
         <v>595</v>
@@ -8945,9 +10031,9 @@
         <v>134.45600000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>175</v>
@@ -8968,9 +10054,9 @@
         <v>131.76688000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -8991,9 +10077,9 @@
         <v>129.13154240000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>470</v>
@@ -9014,9 +10100,9 @@
         <v>126.54891155200001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B10">
         <v>700</v>
@@ -9037,9 +10123,9 @@
         <v>124.01793332096</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11">
         <v>470</v>
@@ -9060,9 +10146,9 @@
         <v>121.5375746545408</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12">
         <v>595</v>
@@ -9083,9 +10169,9 @@
         <v>119.10682316145</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13">
         <v>330</v>
@@ -9106,7 +10192,7 @@
         <v>116.72468669822099</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="F14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9120,9 +10206,9 @@
         <v>114.39019296425657</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B15">
         <f>SUM(B5:B13)</f>
@@ -9149,9 +10235,9 @@
         <v>112.10238910497145</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B16">
         <f>SUM(B5:B8)</f>
@@ -9174,9 +10260,9 @@
         <v>109.86034132287202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17">
         <f>SUM(B9:B13)</f>
@@ -9199,7 +10285,7 @@
         <v>107.66313449641457</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="F18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9213,7 +10299,7 @@
         <v>105.50987180648629</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="F19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9227,7 +10313,7 @@
         <v>103.39967437035655</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="C20">
         <f>B15-C15</f>
         <v>1125</v>
@@ -9249,7 +10335,7 @@
         <v>101.33168088294943</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="F21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9263,7 +10349,7 @@
         <v>99.30504726529044</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="F22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9277,7 +10363,7 @@
         <v>97.318946319984633</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="F23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9291,7 +10377,7 @@
         <v>95.372567393584944</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="F24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9305,7 +10391,7 @@
         <v>93.465116045713245</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="F25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9319,7 +10405,7 @@
         <v>91.595813724798973</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="F26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9333,7 +10419,7 @@
         <v>89.763897450302991</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="F27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9347,7 +10433,7 @@
         <v>87.968619501296928</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="F28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9361,7 +10447,7 @@
         <v>86.209247111270983</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="F29">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9375,7 +10461,7 @@
         <v>84.485062169045563</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="B30">
         <v>3</v>
       </c>
@@ -9396,7 +10482,7 @@
         <v>82.795360925664653</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="B31">
         <v>12</v>
       </c>
@@ -9417,7 +10503,7 @@
         <v>81.139453707151347</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="B32">
         <v>2</v>
       </c>
@@ -9438,7 +10524,7 @@
         <v>79.516664633008318</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="B33">
         <v>3</v>
       </c>
@@ -9459,7 +10545,7 @@
         <v>77.926331340348156</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="B34">
         <v>6</v>
       </c>
@@ -9468,7 +10554,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="B35">
         <v>4</v>
       </c>
@@ -9481,7 +10567,7 @@
         <v>0.55661665243105818</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="B36">
         <v>24</v>
       </c>
@@ -9490,197 +10576,286 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <f>SUM(B30:B36)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="43.2">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="9">
-        <v>1</v>
-      </c>
-      <c r="C40" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2140.39</v>
+      </c>
+      <c r="C40" s="4">
+        <f>100000/B40</f>
+        <v>46.72045748671971</v>
+      </c>
+      <c r="D40" s="4">
+        <f>100-C40</f>
+        <v>53.27954251328029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="46">
-        <v>2</v>
-      </c>
-      <c r="C41" s="46">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="B41" s="4">
+        <v>3115.51</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" ref="C41:C55" si="4">100000/B41</f>
+        <v>32.097473607852322</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" ref="D41:D55" si="5">100-C41</f>
+        <v>67.902526392147678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="9">
-        <v>1</v>
-      </c>
-      <c r="C42" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="B42" s="4">
+        <v>3730.56</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="4"/>
+        <v>26.805627037227655</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="5"/>
+        <v>73.194372962772349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="46">
-        <v>2</v>
-      </c>
-      <c r="C43" s="46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2432.87</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="4"/>
+        <v>41.103717009129134</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="5"/>
+        <v>58.896282990870866</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="9">
-        <v>1</v>
-      </c>
-      <c r="C44" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2472.3000000000002</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="4"/>
+        <v>40.448165675686603</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="5"/>
+        <v>59.551834324313397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="46">
-        <v>2</v>
-      </c>
-      <c r="C45" s="46">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="B45" s="4">
+        <v>3155.38</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="4"/>
+        <v>31.691903986207681</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="5"/>
+        <v>68.308096013792323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="9">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="B46" s="4">
+        <v>3084.06</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="4"/>
+        <v>32.424790697976043</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="5"/>
+        <v>67.57520930202395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="46">
-        <v>2</v>
-      </c>
-      <c r="C47" s="46">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1145.1099999999999</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="4"/>
+        <v>87.327854965898482</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="5"/>
+        <v>12.672145034101518</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="9">
-        <v>1</v>
-      </c>
-      <c r="C48" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="B48" s="4">
+        <v>3373.53</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="4"/>
+        <v>29.642540602869989</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="5"/>
+        <v>70.357459397130015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="46">
-        <v>2</v>
-      </c>
-      <c r="C49" s="46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1926.59</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="4"/>
+        <v>51.905179617874069</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="5"/>
+        <v>48.094820382125931</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="9">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2593.9699999999998</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="4"/>
+        <v>38.550947004013153</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="5"/>
+        <v>61.449052995986847</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="46">
-        <v>2</v>
-      </c>
-      <c r="C51" s="46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1540.99</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="4"/>
+        <v>64.893347782918767</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="5"/>
+        <v>35.106652217081233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="9">
-        <v>1</v>
-      </c>
-      <c r="C52" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2042.1</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="4"/>
+        <v>48.969198374222614</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="5"/>
+        <v>51.030801625777386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="46">
-        <v>2</v>
-      </c>
-      <c r="C53" s="46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1825.5</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="4"/>
+        <v>54.779512462339085</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="5"/>
+        <v>45.220487537660915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="9">
-        <v>1</v>
-      </c>
-      <c r="C54" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2151.11</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="4"/>
+        <v>46.487627317989315</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="5"/>
+        <v>53.512372682010685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" s="46">
-        <v>2</v>
-      </c>
-      <c r="C55" s="46">
-        <v>4</v>
+        <v>210</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2564.0300000000002</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="4"/>
+        <v>39.001103731235588</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="5"/>
+        <v>60.998896268764412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60">
+        <f>127.05+14.67-7</f>
+        <v>134.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61">
+        <f>350.69+10-11</f>
+        <v>349.69</v>
       </c>
     </row>
   </sheetData>
